--- a/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>0.2316770033623578</v>
+      </c>
+      <c r="C2">
+        <v>0.0852166876550236</v>
+      </c>
+      <c r="D2">
+        <v>-0.08138487835318758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>0.1346672062368277</v>
+      </c>
+      <c r="C3">
+        <v>-0.1280444493028638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>0.02351693493249091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>0.8886070821380827</v>
+      </c>
+      <c r="C5">
+        <v>0.6984023719951316</v>
+      </c>
+      <c r="D5">
+        <v>0.1448677628710772</v>
+      </c>
+      <c r="E5">
+        <v>0.4052881872652911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>-0.1312563067615247</v>
-      </c>
-      <c r="C2">
-        <v>0.1338593868915001</v>
-      </c>
-      <c r="D2">
-        <v>0.5367435009433963</v>
-      </c>
-      <c r="E2">
-        <v>0.4336955498665768</v>
-      </c>
-      <c r="F2">
-        <v>0.1021813269589316</v>
-      </c>
-      <c r="G2">
-        <v>0.4078885572716106</v>
-      </c>
-      <c r="H2">
-        <v>0.1820490401357288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>0.9776686536071051</v>
+      </c>
+      <c r="C6">
+        <v>0.1930454007045603</v>
+      </c>
+      <c r="D6">
+        <v>0.2467637686279787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.05325996839312677</v>
-      </c>
-      <c r="C3">
-        <v>0.5328789418545574</v>
-      </c>
-      <c r="D3">
-        <v>0.4315737075408547</v>
-      </c>
-      <c r="E3">
-        <v>0.0854444932620636</v>
-      </c>
-      <c r="F3">
-        <v>0.3977571881406666</v>
-      </c>
-      <c r="G3">
-        <v>0.1714168148790407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>0.4219638785811845</v>
+      </c>
+      <c r="C7">
+        <v>0.289709461146259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.541753044592203</v>
-      </c>
-      <c r="C4">
-        <v>0.4207147200392238</v>
-      </c>
-      <c r="D4">
-        <v>0.07242371787788629</v>
-      </c>
-      <c r="E4">
-        <v>0.3894446996110419</v>
-      </c>
-      <c r="F4">
-        <v>0.1612591066212315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.5660530639361305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0.6497887330196356</v>
-      </c>
-      <c r="C5">
-        <v>0.0338701827355308</v>
-      </c>
-      <c r="D5">
-        <v>0.3352213607146013</v>
-      </c>
-      <c r="E5">
-        <v>0.1643940064190523</v>
-      </c>
-      <c r="F5">
-        <v>0.2654306693240343</v>
-      </c>
-      <c r="G5">
-        <v>-0.07309099998424998</v>
-      </c>
-      <c r="H5">
-        <v>0.236011752269715</v>
-      </c>
-      <c r="I5">
-        <v>-0.02756215956575819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>0.6793444786099201</v>
+      </c>
+      <c r="C9">
+        <v>-0.02520976049679019</v>
+      </c>
+      <c r="D9">
+        <v>0.2288067931726698</v>
+      </c>
+      <c r="E9">
+        <v>0.134039818692575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>0.3204616071385473</v>
-      </c>
-      <c r="C6">
-        <v>0.2964959780847789</v>
-      </c>
-      <c r="D6">
-        <v>0.1062607721783404</v>
-      </c>
-      <c r="E6">
-        <v>0.2771741420360416</v>
-      </c>
-      <c r="F6">
-        <v>-0.09104364265546327</v>
-      </c>
-      <c r="G6">
-        <v>0.2191945248003402</v>
-      </c>
-      <c r="H6">
-        <v>-0.0393866776554252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>0.2637941947793873</v>
+      </c>
+      <c r="C10">
+        <v>0.2418789407274374</v>
+      </c>
+      <c r="D10">
+        <v>0.01716717485606159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.4343042031204955</v>
-      </c>
-      <c r="C7">
-        <v>0.08524760186664342</v>
-      </c>
-      <c r="D7">
-        <v>0.2463709702416378</v>
-      </c>
-      <c r="E7">
-        <v>-0.08751978341511368</v>
-      </c>
-      <c r="F7">
-        <v>0.2081676458766562</v>
-      </c>
-      <c r="G7">
-        <v>-0.04988054198666031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>0.2444535930137193</v>
+      </c>
+      <c r="C11">
+        <v>0.09226486079474359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0.2733553891358581</v>
-      </c>
-      <c r="C8">
-        <v>0.218786894769824</v>
-      </c>
-      <c r="D8">
-        <v>-0.1283722947045041</v>
-      </c>
-      <c r="E8">
-        <v>0.2138682872379873</v>
-      </c>
-      <c r="F8">
-        <v>-0.0638962848421632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>0.2803158371614839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>0.3460580347415064</v>
-      </c>
-      <c r="C9">
-        <v>-0.1408020250902933</v>
-      </c>
-      <c r="D9">
-        <v>0.1933435375694189</v>
-      </c>
-      <c r="E9">
-        <v>-0.05457568064717891</v>
-      </c>
-      <c r="F9">
-        <v>-0.09153713602619679</v>
-      </c>
-      <c r="G9">
-        <v>0.1038079408875973</v>
-      </c>
-      <c r="H9">
-        <v>0.055752840692608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>0.4273955937713333</v>
+      </c>
+      <c r="C13">
+        <v>-0.2249543630882506</v>
+      </c>
+      <c r="D13">
+        <v>0.47633258885008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.01967734296338514</v>
-      </c>
-      <c r="C10">
-        <v>0.1770925820758318</v>
-      </c>
-      <c r="D10">
-        <v>-0.0805611048131234</v>
-      </c>
-      <c r="E10">
-        <v>-0.08018999333708449</v>
-      </c>
-      <c r="F10">
-        <v>0.09921143186630396</v>
-      </c>
-      <c r="G10">
-        <v>0.0518259917712838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>-0.09117338308414791</v>
+      </c>
+      <c r="C14">
+        <v>0.4221215720413304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.1889309306370353</v>
-      </c>
-      <c r="C11">
-        <v>-0.08015387820767511</v>
-      </c>
-      <c r="D11">
-        <v>-0.08013914129037039</v>
-      </c>
-      <c r="E11">
-        <v>0.1015440289630546</v>
-      </c>
-      <c r="F11">
-        <v>0.05313359452311031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>0.4801788448840834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.007540347174417594</v>
-      </c>
-      <c r="C12">
-        <v>-0.08911175444244068</v>
-      </c>
-      <c r="D12">
-        <v>0.08738684957084136</v>
-      </c>
-      <c r="E12">
-        <v>0.05932817398962531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>-0.07563221424336358</v>
-      </c>
-      <c r="C13">
-        <v>0.09221748149536696</v>
-      </c>
-      <c r="D13">
-        <v>0.06440027921143651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.06151060783964375</v>
-      </c>
-      <c r="C14">
-        <v>0.0703568358153609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.08435698425312071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -453,13 +453,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2316770033623578</v>
+        <v>0.08707909936379449</v>
       </c>
       <c r="C2">
-        <v>0.0852166876550236</v>
+        <v>0.1849415347999282</v>
       </c>
       <c r="D2">
-        <v>-0.08138487835318758</v>
+        <v>0.6087619768527019</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1346672062368277</v>
+        <v>0.2343920533817323</v>
       </c>
       <c r="C3">
-        <v>-0.1280444493028638</v>
+        <v>0.5621024059030257</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.02351693493249091</v>
+        <v>0.7136637901383804</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.8886070821380827</v>
+        <v>0.6611739089257214</v>
       </c>
       <c r="C5">
-        <v>0.6984023719951316</v>
+        <v>0.2424661772861064</v>
       </c>
       <c r="D5">
-        <v>0.1448677628710772</v>
+        <v>0.343437461374561</v>
       </c>
       <c r="E5">
-        <v>0.4052881872652911</v>
+        <v>0.2316648163334098</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.9776686536071051</v>
+        <v>0.52173245889808</v>
       </c>
       <c r="C6">
-        <v>0.1930454007045603</v>
+        <v>0.3916150992080441</v>
       </c>
       <c r="D6">
-        <v>0.2467637686279787</v>
+        <v>0.0731403976960974</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.4219638785811845</v>
+        <v>0.6205335770846683</v>
       </c>
       <c r="C7">
-        <v>0.289709461146259</v>
+        <v>0.1160860902143776</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.5660530639361305</v>
+        <v>0.3924296930042493</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.6793444786099201</v>
+        <v>0.4747974866332783</v>
       </c>
       <c r="C9">
-        <v>-0.02520976049679019</v>
+        <v>-0.06986322861814367</v>
       </c>
       <c r="D9">
-        <v>0.2288067931726698</v>
+        <v>0.2092250849631835</v>
       </c>
       <c r="E9">
-        <v>0.134039818692575</v>
+        <v>0.02501891626858249</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2637941947793873</v>
+        <v>0.2191407266580338</v>
       </c>
       <c r="C10">
-        <v>0.2418789407274374</v>
+        <v>0.2222972325179511</v>
       </c>
       <c r="D10">
-        <v>0.01716717485606159</v>
+        <v>-0.09185372756793091</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2444535930137193</v>
+        <v>0.224871884804233</v>
       </c>
       <c r="C11">
-        <v>0.09226486079474359</v>
+        <v>-0.0167560416292489</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2803158371614839</v>
+        <v>0.1712949347374914</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.4273955937713333</v>
+        <v>-0.01257980384821508</v>
       </c>
       <c r="C13">
-        <v>-0.2249543630882506</v>
+        <v>0.1395187281562265</v>
       </c>
       <c r="D13">
-        <v>0.47633258885008</v>
+        <v>0.1036987463175434</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.09117338308414791</v>
+        <v>0.2732997081603292</v>
       </c>
       <c r="C14">
-        <v>0.4221215720413304</v>
+        <v>0.04948772950879379</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4801788448840834</v>
+        <v>0.1075450023515467</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Component_Results/GDP/Data/naive_err/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED7A2B0922BD2D4CC3E502FE1278B46777" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A75F285E-F7A6-4EF2-9BFC-F62FCA45736F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +32,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -76,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,17 +256,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +312,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,9 +381,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,14 +557,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +580,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.08707909936379449</v>
+        <v>-0.55389047609177067</v>
       </c>
       <c r="C2">
+        <v>-0.22429680584912001</v>
+      </c>
+      <c r="D2">
+        <v>-1.361049189530805</v>
+      </c>
+      <c r="E2">
+        <v>-0.16134773285247589</v>
+      </c>
+      <c r="F2">
+        <v>-0.36137780416283499</v>
+      </c>
+      <c r="G2">
+        <v>0.32049486357305951</v>
+      </c>
+      <c r="H2">
+        <v>-0.36136506428365661</v>
+      </c>
+      <c r="I2">
+        <v>-0.16136306446351201</v>
+      </c>
+      <c r="J2">
+        <v>-6.1362531504890412E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.82995651066455167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1.081102260872925</v>
+      </c>
+      <c r="C3">
+        <v>4.1377810864170923E-2</v>
+      </c>
+      <c r="D3">
+        <v>-0.18465668826689111</v>
+      </c>
+      <c r="E3">
+        <v>0.48797415090292962</v>
+      </c>
+      <c r="F3">
+        <v>-0.19720930559381719</v>
+      </c>
+      <c r="G3">
+        <v>1.5949987340987961E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.1011638359404186</v>
+      </c>
+      <c r="I3">
+        <v>0.99232727617066441</v>
+      </c>
+      <c r="J3">
+        <v>0.2376717187312041</v>
+      </c>
+      <c r="K3">
+        <v>-0.39906797108548497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.35138789180709962</v>
+      </c>
+      <c r="C4">
+        <v>0.75482723528093043</v>
+      </c>
+      <c r="D4">
+        <v>-4.1603986803304523E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.1113051495511781</v>
+      </c>
+      <c r="F4">
+        <v>0.1919495663995574</v>
+      </c>
+      <c r="G4">
+        <v>1.075312856923557</v>
+      </c>
+      <c r="H4">
+        <v>0.31744340343247063</v>
+      </c>
+      <c r="I4">
+        <v>-0.32062010566222587</v>
+      </c>
+      <c r="J4">
+        <v>7.8827456494033221E-2</v>
+      </c>
+      <c r="K4">
+        <v>-5.1578925410248888E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-9.4510886236455705E-2</v>
+      </c>
+      <c r="C5">
+        <v>6.3532726634190018E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.1456325336773738</v>
+      </c>
+      <c r="E5">
+        <v>1.029321037915564</v>
+      </c>
+      <c r="F5">
+        <v>0.27146894663930637</v>
+      </c>
+      <c r="G5">
+        <v>-0.36663700450460701</v>
+      </c>
+      <c r="H5">
+        <v>3.2771979168213117E-2</v>
+      </c>
+      <c r="I5">
+        <v>-5.1238235258247333E-2</v>
+      </c>
+      <c r="J5">
+        <v>-0.48551138110258479</v>
+      </c>
+      <c r="K5">
+        <v>0.41746107572593349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.191155761739875</v>
+      </c>
+      <c r="C6">
+        <v>1.044474962154762</v>
+      </c>
+      <c r="D6">
+        <v>0.27284001186517709</v>
+      </c>
+      <c r="E6">
+        <v>-0.37139924717306122</v>
+      </c>
+      <c r="F6">
+        <v>2.5278523333166599E-2</v>
+      </c>
+      <c r="G6">
+        <v>-5.9947443185133731E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.4947615887729882</v>
+      </c>
+      <c r="I6">
+        <v>0.40797020079112573</v>
+      </c>
+      <c r="J6">
+        <v>0.25651018730773623</v>
+      </c>
+      <c r="K6">
+        <v>-0.37699729829315332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.20547405266267851</v>
+      </c>
+      <c r="C7">
+        <v>-0.40066967051989488</v>
+      </c>
+      <c r="D7">
+        <v>1.237886182302533E-2</v>
+      </c>
+      <c r="E7">
+        <v>-6.5816797103398605E-2</v>
+      </c>
+      <c r="F7">
+        <v>-0.49761125907659498</v>
+      </c>
+      <c r="G7">
+        <v>0.40641783385144442</v>
+      </c>
+      <c r="H7">
+        <v>0.25551528433338611</v>
+      </c>
+      <c r="I7">
+        <v>-0.37775260000148908</v>
+      </c>
+      <c r="J7">
+        <v>4.9712505620071068E-2</v>
+      </c>
+      <c r="K7">
+        <v>-0.116592993421957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.1206087786167467</v>
+      </c>
+      <c r="C8">
+        <v>-0.1496551203866397</v>
+      </c>
+      <c r="D8">
+        <v>-0.55968910139291361</v>
+      </c>
+      <c r="E8">
+        <v>0.35399701700575331</v>
+      </c>
+      <c r="F8">
+        <v>0.2073791021907879</v>
+      </c>
+      <c r="G8">
+        <v>-0.42398804380236538</v>
+      </c>
+      <c r="H8">
+        <v>4.3201447020334016E-3</v>
+      </c>
+      <c r="I8">
+        <v>-0.1616114502496461</v>
+      </c>
+      <c r="J8">
+        <v>-3.8713047206825502E-2</v>
+      </c>
+      <c r="K8">
+        <v>8.6003702736811016E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.50735739590646167</v>
+      </c>
+      <c r="C9">
+        <v>0.39103808914146559</v>
+      </c>
+      <c r="D9">
+        <v>0.2380817384426481</v>
+      </c>
+      <c r="E9">
+        <v>-0.39612430134612509</v>
+      </c>
+      <c r="F9">
+        <v>3.092342225147637E-2</v>
+      </c>
+      <c r="G9">
+        <v>-0.13556840393022571</v>
+      </c>
+      <c r="H9">
+        <v>-1.29189962667301E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.4283744881417388E-2</v>
+      </c>
+      <c r="J9">
+        <v>-0.36235411106915932</v>
+      </c>
+      <c r="K9">
+        <v>-0.10829989328190739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.46248204912655871</v>
+      </c>
+      <c r="C10">
+        <v>-0.27778691250618992</v>
+      </c>
+      <c r="D10">
+        <v>0.1001968917909459</v>
+      </c>
+      <c r="E10">
+        <v>-8.8394635339606398E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.4271917672650078E-2</v>
+      </c>
+      <c r="G10">
+        <v>6.6966617133581263E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.33170704186371408</v>
+      </c>
+      <c r="I10">
+        <v>-7.8572176441747466E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.1411290639539669</v>
+      </c>
+      <c r="K10">
+        <v>-8.5653655810264906E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-8.161995968788871E-2</v>
+      </c>
+      <c r="C11">
+        <v>-0.19554536176474491</v>
+      </c>
+      <c r="D11">
+        <v>-5.0091631979878593E-2</v>
+      </c>
+      <c r="E11">
+        <v>6.9870738574844826E-3</v>
+      </c>
+      <c r="F11">
+        <v>-0.38537330728630309</v>
+      </c>
+      <c r="G11">
+        <v>-0.12946643176459349</v>
+      </c>
+      <c r="H11">
+        <v>9.1452407865126206E-2</v>
+      </c>
+      <c r="I11">
+        <v>-0.13479527255658511</v>
+      </c>
+      <c r="J11">
+        <v>-0.32281105108883063</v>
+      </c>
+      <c r="K11">
+        <v>-0.35005409002127558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-2.4911137991875779E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.6226921913103499E-2</v>
+      </c>
+      <c r="D12">
+        <v>-0.3686604243582895</v>
+      </c>
+      <c r="E12">
+        <v>-0.11386527976048651</v>
+      </c>
+      <c r="F12">
+        <v>0.1065654758634297</v>
+      </c>
+      <c r="G12">
+        <v>-0.1198964034796114</v>
+      </c>
+      <c r="H12">
+        <v>-0.30800614226068129</v>
+      </c>
+      <c r="I12">
+        <v>-0.33529038009462259</v>
+      </c>
+      <c r="J12">
+        <v>-0.52624962702335665</v>
+      </c>
+      <c r="K12">
+        <v>-0.3090455393245764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.3547147284301006</v>
+      </c>
+      <c r="C13">
+        <v>-0.10413231646008241</v>
+      </c>
+      <c r="D13">
+        <v>0.1145169546703413</v>
+      </c>
+      <c r="E13">
+        <v>-0.11271142296585759</v>
+      </c>
+      <c r="F13">
+        <v>-0.30115063552442878</v>
+      </c>
+      <c r="G13">
+        <v>-0.32857650904794861</v>
+      </c>
+      <c r="H13">
+        <v>-0.5195966451170424</v>
+      </c>
+      <c r="I13">
+        <v>-0.30241873464524371</v>
+      </c>
+      <c r="J13">
+        <v>7.2644782951893916E-3</v>
+      </c>
+      <c r="K13">
+        <v>-0.14704412830505739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.26722043352842101</v>
+      </c>
+      <c r="C14">
+        <v>-3.9914429183266098E-2</v>
+      </c>
+      <c r="D14">
+        <v>-0.26277001245271719</v>
+      </c>
+      <c r="E14">
+        <v>-0.30493964942126578</v>
+      </c>
+      <c r="F14">
+        <v>-0.50227763457393204</v>
+      </c>
+      <c r="G14">
+        <v>-0.28780694738377338</v>
+      </c>
+      <c r="H14">
+        <v>2.0716209226910198E-2</v>
+      </c>
+      <c r="I14">
+        <v>-0.1340894861272014</v>
+      </c>
+      <c r="J14">
+        <v>0.51727954353299554</v>
+      </c>
+      <c r="K14">
+        <v>0.29986671140575161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.34294145552158772</v>
+      </c>
+      <c r="C15">
+        <v>-0.3442808007407876</v>
+      </c>
+      <c r="D15">
+        <v>-0.52389090305649799</v>
+      </c>
+      <c r="E15">
+        <v>-0.30179316510244197</v>
+      </c>
+      <c r="F15">
+        <v>1.0013506334002111E-2</v>
+      </c>
+      <c r="G15">
+        <v>-0.14337865279190309</v>
+      </c>
+      <c r="H15">
+        <v>0.50859890590142609</v>
+      </c>
+      <c r="I15">
+        <v>0.29144804922411183</v>
+      </c>
+      <c r="J15">
+        <v>-9.1157802292601897E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.38355677315122022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.38543471884914537</v>
+      </c>
+      <c r="C16">
+        <v>-0.23319278384567471</v>
+      </c>
+      <c r="D16">
+        <v>4.8394176740538308E-2</v>
+      </c>
+      <c r="E16">
+        <v>-0.11798323328461389</v>
+      </c>
+      <c r="F16">
+        <v>0.52841220418228607</v>
+      </c>
+      <c r="G16">
+        <v>0.30886176020985989</v>
+      </c>
+      <c r="H16">
+        <v>-7.4775605368756215E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.3994955511465666</v>
+      </c>
+      <c r="J16">
+        <v>0.2404745781434928</v>
+      </c>
+      <c r="K16">
+        <v>0.29656780423290718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.24506707561250299</v>
+      </c>
+      <c r="C17">
+        <v>-2.0556266847969351E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.58175102705301773</v>
+      </c>
+      <c r="E17">
+        <v>0.34281698565416041</v>
+      </c>
+      <c r="F17">
+        <v>-4.9348723642914927E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.42117059108183741</v>
+      </c>
+      <c r="H17">
+        <v>0.2604991662938107</v>
+      </c>
+      <c r="I17">
+        <v>0.31586638993783189</v>
+      </c>
+      <c r="J17">
+        <v>2.5435062045918171</v>
+      </c>
+      <c r="K17">
+        <v>10.03430721618442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>7.9232045348177071E-3</v>
+      </c>
+      <c r="C18">
+        <v>0.59774409484201407</v>
+      </c>
+      <c r="D18">
+        <v>0.35324556121783768</v>
+      </c>
+      <c r="E18">
+        <v>-4.1349018787316838E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.42810851675299139</v>
+      </c>
+      <c r="G18">
+        <v>0.26697299382106993</v>
+      </c>
+      <c r="H18">
+        <v>0.32213736366850609</v>
+      </c>
+      <c r="I18">
+        <v>2.5496885137206542</v>
+      </c>
+      <c r="J18">
+        <v>10.0404507717668</v>
+      </c>
+      <c r="K18">
+        <v>-6.2905894879687452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.51627816528385462</v>
+      </c>
+      <c r="C19">
+        <v>0.30407545094572669</v>
+      </c>
+      <c r="D19">
+        <v>-7.6350181917041626E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.39929727850819918</v>
+      </c>
+      <c r="F19">
+        <v>0.24086662450326221</v>
+      </c>
+      <c r="G19">
+        <v>0.29721303761860629</v>
+      </c>
+      <c r="H19">
+        <v>2.5252807825262629</v>
+      </c>
+      <c r="I19">
+        <v>10.016268825894789</v>
+      </c>
+      <c r="J19">
+        <v>-6.314672744602011</v>
+      </c>
+      <c r="K19">
+        <v>0.72533322972173697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.34190098489138893</v>
+      </c>
+      <c r="C20">
+        <v>-7.5528594465656407E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.38383937382216399</v>
+      </c>
+      <c r="E20">
+        <v>0.2183529830502082</v>
+      </c>
+      <c r="F20">
+        <v>0.27163696430084322</v>
+      </c>
+      <c r="G20">
+        <v>2.4983756766301481</v>
+      </c>
+      <c r="H20">
+        <v>9.9887869340619737</v>
+      </c>
+      <c r="I20">
+        <v>-6.3424049574479007</v>
+      </c>
+      <c r="J20">
+        <v>0.69749237829010791</v>
+      </c>
+      <c r="K20">
+        <v>1.006927789256145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.30311553996256679</v>
+      </c>
+      <c r="C21">
+        <v>0.27503849245976669</v>
+      </c>
+      <c r="D21">
+        <v>0.1623823135173533</v>
+      </c>
+      <c r="E21">
+        <v>0.23862515954974911</v>
+      </c>
+      <c r="F21">
+        <v>2.4753639290065368</v>
+      </c>
+      <c r="G21">
+        <v>9.9701298821849544</v>
+      </c>
+      <c r="H21">
+        <v>-6.3591656388539022</v>
+      </c>
+      <c r="I21">
+        <v>0.68155752191534069</v>
+      </c>
+      <c r="J21">
+        <v>0.99135256082636014</v>
+      </c>
+      <c r="K21">
+        <v>-1.0279901951232879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.23854109479193031</v>
+      </c>
+      <c r="C22">
+        <v>0.13739912984636679</v>
+      </c>
+      <c r="D22">
+        <v>0.21620223699217231</v>
+      </c>
+      <c r="E22">
+        <v>2.4530719558951128</v>
+      </c>
+      <c r="F22">
+        <v>9.9475097250879525</v>
+      </c>
+      <c r="G22">
+        <v>-6.3820799077433037</v>
+      </c>
+      <c r="H22">
+        <v>0.65845584380684996</v>
+      </c>
+      <c r="I22">
+        <v>0.96814598670100316</v>
+      </c>
+      <c r="J22">
+        <v>-1.051251586965475</v>
+      </c>
+      <c r="K22">
+        <v>-1.2612192561056139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.24286976895424631</v>
+      </c>
+      <c r="C23">
+        <v>0.26841196049812588</v>
+      </c>
+      <c r="D23">
+        <v>2.4844148823786458</v>
+      </c>
+      <c r="E23">
+        <v>9.9706847783551833</v>
+      </c>
+      <c r="F23">
+        <v>-6.3621019403622823</v>
+      </c>
+      <c r="G23">
+        <v>0.67718239776652356</v>
+      </c>
+      <c r="H23">
+        <v>0.98638270689683916</v>
+      </c>
+      <c r="I23">
+        <v>-1.0332066002853679</v>
+      </c>
+      <c r="J23">
+        <v>-1.2432493190916369</v>
+      </c>
+      <c r="K23">
+        <v>0.81673398578940781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>9.9847904809624938E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.4073866554422092</v>
+      </c>
+      <c r="D24">
+        <v>9.9299650177950927</v>
+      </c>
+      <c r="E24">
+        <v>-6.3884201900147799</v>
+      </c>
+      <c r="F24">
+        <v>0.65657659583305106</v>
+      </c>
+      <c r="G24">
+        <v>0.96804285400910906</v>
+      </c>
+      <c r="H24">
+        <v>-1.0506475941345319</v>
+      </c>
+      <c r="I24">
+        <v>-1.2603337416145379</v>
+      </c>
+      <c r="J24">
+        <v>0.79979101701088884</v>
+      </c>
+      <c r="K24">
+        <v>-0.2054449384519543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2.3777239202905842</v>
+      </c>
+      <c r="C25">
+        <v>9.9057335228170089</v>
+      </c>
+      <c r="D25">
+        <v>-6.4105920598084358</v>
+      </c>
+      <c r="E25">
+        <v>0.63518436194462957</v>
+      </c>
+      <c r="F25">
+        <v>0.94694510040354685</v>
+      </c>
+      <c r="G25">
+        <v>-1.0716343822608989</v>
+      </c>
+      <c r="H25">
+        <v>-1.2812788257224059</v>
+      </c>
+      <c r="I25">
+        <v>0.77886156074998014</v>
+      </c>
+      <c r="J25">
+        <v>-0.22636855754651039</v>
+      </c>
+      <c r="K25">
+        <v>-0.14106112403680091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>9.8516169513799579</v>
+      </c>
+      <c r="C26">
+        <v>-6.4277501566588464</v>
+      </c>
+      <c r="D26">
+        <v>0.63311675802047429</v>
+      </c>
+      <c r="E26">
+        <v>0.95102873525010378</v>
+      </c>
+      <c r="F26">
+        <v>-1.065043956288229</v>
+      </c>
+      <c r="G26">
+        <v>-1.273667085429927</v>
+      </c>
+      <c r="H26">
+        <v>0.78688929900405602</v>
+      </c>
+      <c r="I26">
+        <v>-0.2181714176257043</v>
+      </c>
+      <c r="J26">
+        <v>-0.13279501687757769</v>
+      </c>
+      <c r="K26">
+        <v>0.2072416961550223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-7.5084331817440848</v>
+      </c>
+      <c r="C27">
+        <v>0.16309552002212929</v>
+      </c>
+      <c r="D27">
+        <v>0.70699590075480534</v>
+      </c>
+      <c r="E27">
+        <v>-1.22930727779398</v>
+      </c>
+      <c r="F27">
+        <v>-1.4100838038995489</v>
+      </c>
+      <c r="G27">
+        <v>0.6601608170081259</v>
+      </c>
+      <c r="H27">
+        <v>-0.34153517758941959</v>
+      </c>
+      <c r="I27">
+        <v>-0.25499205171167189</v>
+      </c>
+      <c r="J27">
+        <v>8.5448521450655984E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.41560286858140288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-1.5076176405294659</v>
+      </c>
+      <c r="C28">
+        <v>1.664443971041772</v>
+      </c>
+      <c r="D28">
+        <v>-1.509367023909016</v>
+      </c>
+      <c r="E28">
+        <v>-1.2910175850528871</v>
+      </c>
+      <c r="F28">
+        <v>0.60417775393654705</v>
+      </c>
+      <c r="G28">
+        <v>-0.33870270317585222</v>
+      </c>
+      <c r="H28">
+        <v>-0.2772131240639395</v>
+      </c>
+      <c r="I28">
+        <v>7.1832829539516391E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.39838940920979132</v>
+      </c>
+      <c r="K28">
+        <v>0.31757735969630912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>6.5329498933675012E-4</v>
+      </c>
+      <c r="C29">
+        <v>-0.79533021272365356</v>
+      </c>
+      <c r="D29">
+        <v>-1.309977244691565</v>
+      </c>
+      <c r="E29">
+        <v>0.67912157562464881</v>
+      </c>
+      <c r="F29">
+        <v>-0.26722629476406839</v>
+      </c>
+      <c r="G29">
+        <v>-0.18944527453942159</v>
+      </c>
+      <c r="H29">
+        <v>0.1451221365760503</v>
+      </c>
+      <c r="I29">
+        <v>0.47761087885717118</v>
+      </c>
+      <c r="J29">
+        <v>0.39548407883941877</v>
+      </c>
+      <c r="K29">
+        <v>6.6641083466682405E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-0.74192823794679219</v>
+      </c>
+      <c r="C30">
+        <v>-1.166777999412832</v>
+      </c>
+      <c r="D30">
+        <v>0.73048990811181813</v>
+      </c>
+      <c r="E30">
+        <v>-0.184459248796779</v>
+      </c>
+      <c r="F30">
+        <v>-9.8384075300570029E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.2250485054956099</v>
+      </c>
+      <c r="H30">
+        <v>0.56015186151897101</v>
+      </c>
+      <c r="I30">
+        <v>0.47940642769389108</v>
+      </c>
+      <c r="J30">
+        <v>0.1495229262092557</v>
+      </c>
+      <c r="K30">
+        <v>0.45035201562780591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-1.0465879429183611</v>
+      </c>
+      <c r="C31">
+        <v>0.47670428993760688</v>
+      </c>
+      <c r="D31">
+        <v>-8.9186857414716714E-2</v>
+      </c>
+      <c r="E31">
+        <v>-2.6069361491420581E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.20111691683136601</v>
+      </c>
+      <c r="G31">
+        <v>0.58101084858998497</v>
+      </c>
+      <c r="H31">
+        <v>0.51070432092653328</v>
+      </c>
+      <c r="I31">
+        <v>0.16380767341933161</v>
+      </c>
+      <c r="J31">
+        <v>0.46831797516355628</v>
+      </c>
+      <c r="K31">
+        <v>0.24789571991610601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-4.2428944166694071E-2</v>
+      </c>
+      <c r="C32">
+        <v>-0.1802303067680682</v>
+      </c>
+      <c r="D32">
+        <v>0.22439387137671049</v>
+      </c>
+      <c r="E32">
+        <v>0.1646630556268408</v>
+      </c>
+      <c r="F32">
+        <v>0.55218258473007276</v>
+      </c>
+      <c r="G32">
+        <v>0.57327489683118693</v>
+      </c>
+      <c r="H32">
+        <v>0.18578457218463981</v>
+      </c>
+      <c r="I32">
+        <v>0.47723492691780811</v>
+      </c>
+      <c r="J32">
+        <v>0.27545626040305721</v>
+      </c>
+      <c r="K32">
+        <v>0.39607276236888678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.23460869199262799</v>
+      </c>
+      <c r="C33">
+        <v>0.23919642231650229</v>
+      </c>
+      <c r="D33">
+        <v>0.18788111548888181</v>
+      </c>
+      <c r="E33">
+        <v>0.55149645503711631</v>
+      </c>
+      <c r="F33">
+        <v>0.57727785647345742</v>
+      </c>
+      <c r="G33">
+        <v>0.19591792018164761</v>
+      </c>
+      <c r="H33">
+        <v>0.48394227443625421</v>
+      </c>
+      <c r="I33">
+        <v>0.28125947580720029</v>
+      </c>
+      <c r="J33">
+        <v>0.40329451830699342</v>
+      </c>
+      <c r="K33">
+        <v>5.7693408908631123E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>8.7079099363794488E-2</v>
+      </c>
+      <c r="C34">
         <v>0.1849415347999282</v>
       </c>
-      <c r="D2">
-        <v>0.6087619768527019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="D34">
+        <v>0.60876197685270195</v>
+      </c>
+      <c r="E34">
+        <v>0.56203577447169561</v>
+      </c>
+      <c r="F34">
+        <v>0.1918372142989769</v>
+      </c>
+      <c r="G34">
+        <v>0.49820522728343952</v>
+      </c>
+      <c r="H34">
+        <v>0.28435992680966538</v>
+      </c>
+      <c r="I34">
+        <v>0.40521316375637079</v>
+      </c>
+      <c r="J34">
+        <v>6.363726260065683E-2</v>
+      </c>
+      <c r="K34">
+        <v>0.37106324449338218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>0.2343920533817323</v>
       </c>
-      <c r="C3">
-        <v>0.5621024059030257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.7136637901383804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.6611739089257214</v>
-      </c>
-      <c r="C5">
-        <v>0.2424661772861064</v>
-      </c>
-      <c r="D5">
-        <v>0.343437461374561</v>
-      </c>
-      <c r="E5">
+      <c r="C35">
+        <v>0.56210240590302574</v>
+      </c>
+      <c r="D35">
+        <v>0.51300469406684068</v>
+      </c>
+      <c r="E35">
+        <v>0.17213868529182369</v>
+      </c>
+      <c r="F35">
+        <v>0.46761362204724161</v>
+      </c>
+      <c r="G35">
+        <v>0.2494089190592719</v>
+      </c>
+      <c r="H35">
+        <v>0.37520454862988267</v>
+      </c>
+      <c r="I35">
+        <v>3.2961375863442333E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.33919119229468581</v>
+      </c>
+      <c r="K35">
+        <v>7.7919706976631975E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0.71366379013838044</v>
+      </c>
+      <c r="C36">
+        <v>0.50456200196407719</v>
+      </c>
+      <c r="D36">
+        <v>0.1101462997413605</v>
+      </c>
+      <c r="E36">
+        <v>0.47695054469400933</v>
+      </c>
+      <c r="F36">
+        <v>0.2460407126934151</v>
+      </c>
+      <c r="G36">
+        <v>0.35503062003210872</v>
+      </c>
+      <c r="H36">
+        <v>2.3594641426671611E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.33058170279391969</v>
+      </c>
+      <c r="J36">
+        <v>6.5665426632828594E-2</v>
+      </c>
+      <c r="K36">
+        <v>4.1421126292376292E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.66117390892572137</v>
+      </c>
+      <c r="C37">
+        <v>0.24246617728610639</v>
+      </c>
+      <c r="D37">
+        <v>0.34343746137456099</v>
+      </c>
+      <c r="E37">
         <v>0.2316648163334098</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.52173245889808</v>
-      </c>
-      <c r="C6">
+      <c r="F37">
+        <v>0.37504633839998491</v>
+      </c>
+      <c r="G37">
+        <v>-8.6030852191935903E-3</v>
+      </c>
+      <c r="H37">
+        <v>0.30935653100367999</v>
+      </c>
+      <c r="I37">
+        <v>5.6410301744052482E-2</v>
+      </c>
+      <c r="J37">
+        <v>2.36668180707795E-2</v>
+      </c>
+      <c r="K37">
+        <v>0.21637266715086581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.52173245889807995</v>
+      </c>
+      <c r="C38">
         <v>0.3916150992080441</v>
       </c>
-      <c r="D6">
-        <v>0.0731403976960974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.6205335770846683</v>
-      </c>
-      <c r="C7">
+      <c r="D38">
+        <v>7.3140397696097398E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.37885070659401082</v>
+      </c>
+      <c r="F38">
+        <v>-6.5747834923131632E-3</v>
+      </c>
+      <c r="G38">
+        <v>0.25956965816178651</v>
+      </c>
+      <c r="H38">
+        <v>2.912912904287851E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.6404811784121189E-3</v>
+      </c>
+      <c r="J38">
+        <v>0.18598767116614759</v>
+      </c>
+      <c r="K38">
+        <v>0.14147066322833121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0.62053357708466828</v>
+      </c>
+      <c r="C39">
         <v>0.1160860902143776</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.3924296930042493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.4747974866332783</v>
-      </c>
-      <c r="C9">
-        <v>-0.06986322861814367</v>
-      </c>
-      <c r="D9">
-        <v>0.2092250849631835</v>
-      </c>
-      <c r="E9">
-        <v>0.02501891626858249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="D39">
+        <v>0.25855369122756572</v>
+      </c>
+      <c r="E39">
+        <v>6.701456605825995E-4</v>
+      </c>
+      <c r="F39">
+        <v>0.26608053333632398</v>
+      </c>
+      <c r="G39">
+        <v>-4.943883244233005E-3</v>
+      </c>
+      <c r="H39">
+        <v>-1.3312900822370881E-2</v>
+      </c>
+      <c r="I39">
+        <v>0.17492423551604541</v>
+      </c>
+      <c r="J39">
+        <v>0.122467952301144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.39242969300424929</v>
+      </c>
+      <c r="C40">
+        <v>0.32223062245560219</v>
+      </c>
+      <c r="D40">
+        <v>-0.13423899904841419</v>
+      </c>
+      <c r="E40">
+        <v>0.28362046274920671</v>
+      </c>
+      <c r="F40">
+        <v>1.1989192493856989E-2</v>
+      </c>
+      <c r="G40">
+        <v>-4.5174620270868798E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.16390334664083661</v>
+      </c>
+      <c r="I40">
+        <v>0.1183294966498535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0.47479748663327831</v>
+      </c>
+      <c r="C41">
+        <v>-6.9863228618143675E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.20922508496318351</v>
+      </c>
+      <c r="E41">
+        <v>2.5018916268582488E-2</v>
+      </c>
+      <c r="F41">
+        <v>-2.439031925178908E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.15312888921239279</v>
+      </c>
+      <c r="H41">
+        <v>0.1184450969585793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.2191407266580338</v>
       </c>
-      <c r="C10">
-        <v>0.2222972325179511</v>
-      </c>
-      <c r="D10">
-        <v>-0.09185372756793091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.224871884804233</v>
-      </c>
-      <c r="C11">
-        <v>-0.0167560416292489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.1712949347374914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>-0.01257980384821508</v>
-      </c>
-      <c r="C13">
-        <v>0.1395187281562265</v>
-      </c>
-      <c r="D13">
+      <c r="C42">
+        <v>0.22229723251795111</v>
+      </c>
+      <c r="D42">
+        <v>-9.1853727567930907E-2</v>
+      </c>
+      <c r="E42">
+        <v>2.5767971977310178E-3</v>
+      </c>
+      <c r="F42">
+        <v>0.16131680274880111</v>
+      </c>
+      <c r="G42">
+        <v>8.8158456931728191E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.22487188480423301</v>
+      </c>
+      <c r="C43">
+        <v>-1.6756041629248899E-2</v>
+      </c>
+      <c r="D43">
+        <v>-2.441659463916648E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.15403638444925191</v>
+      </c>
+      <c r="F43">
+        <v>0.105470015037597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.17129493473749141</v>
+      </c>
+      <c r="C44">
+        <v>-4.3289029112260402E-2</v>
+      </c>
+      <c r="D44">
+        <v>9.0437421631856058E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.12712495198613541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>-1.257980384821508E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.13951872815622651</v>
+      </c>
+      <c r="D45">
         <v>0.1036987463175434</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0.2732997081603292</v>
-      </c>
-      <c r="C14">
-        <v>0.04948772950879379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.27329970816032922</v>
+      </c>
+      <c r="C46">
+        <v>4.9487729508793793E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.1075450023515467</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Component_Results/GDP/Data/naive_err/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED7A2B0922BD2D4CC3E502FE1278B46777" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A75F285E-F7A6-4EF2-9BFC-F62FCA45736F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -196,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,25 +250,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,7 +298,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -346,7 +332,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,10 +366,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,17 +541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,42 +580,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.55389047609177067</v>
+        <v>-0.5538904760917707</v>
       </c>
       <c r="C2">
-        <v>-0.22429680584912001</v>
+        <v>-0.22429680584912</v>
       </c>
       <c r="D2">
         <v>-1.361049189530805</v>
       </c>
       <c r="E2">
-        <v>-0.16134773285247589</v>
+        <v>-0.1613477328524759</v>
       </c>
       <c r="F2">
-        <v>-0.36137780416283499</v>
+        <v>-0.361377804162835</v>
       </c>
       <c r="G2">
-        <v>0.32049486357305951</v>
+        <v>0.3204948635730595</v>
       </c>
       <c r="H2">
-        <v>-0.36136506428365661</v>
+        <v>-0.3613650642836566</v>
       </c>
       <c r="I2">
-        <v>-0.16136306446351201</v>
+        <v>-0.161363064463512</v>
       </c>
       <c r="J2">
-        <v>-6.1362531504890412E-2</v>
+        <v>-0.06136253150489041</v>
       </c>
       <c r="K2">
-        <v>0.82995651066455167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8299565106645517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -642,45 +623,45 @@
         <v>-1.081102260872925</v>
       </c>
       <c r="C3">
-        <v>4.1377810864170923E-2</v>
+        <v>0.04137781086417092</v>
       </c>
       <c r="D3">
-        <v>-0.18465668826689111</v>
+        <v>-0.1846566882668911</v>
       </c>
       <c r="E3">
-        <v>0.48797415090292962</v>
+        <v>0.4879741509029296</v>
       </c>
       <c r="F3">
-        <v>-0.19720930559381719</v>
+        <v>-0.1972093055938172</v>
       </c>
       <c r="G3">
-        <v>1.5949987340987961E-3</v>
+        <v>0.001594998734098796</v>
       </c>
       <c r="H3">
         <v>0.1011638359404186</v>
       </c>
       <c r="I3">
-        <v>0.99232727617066441</v>
+        <v>0.9923272761706644</v>
       </c>
       <c r="J3">
         <v>0.2376717187312041</v>
       </c>
       <c r="K3">
-        <v>-0.39906797108548497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.399067971085485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.35138789180709962</v>
+        <v>0.3513878918070996</v>
       </c>
       <c r="C4">
-        <v>0.75482723528093043</v>
+        <v>0.7548272352809304</v>
       </c>
       <c r="D4">
-        <v>-4.1603986803304523E-2</v>
+        <v>-0.04160398680330452</v>
       </c>
       <c r="E4">
         <v>0.1113051495511781</v>
@@ -692,27 +673,27 @@
         <v>1.075312856923557</v>
       </c>
       <c r="H4">
-        <v>0.31744340343247063</v>
+        <v>0.3174434034324706</v>
       </c>
       <c r="I4">
-        <v>-0.32062010566222587</v>
+        <v>-0.3206201056622259</v>
       </c>
       <c r="J4">
-        <v>7.8827456494033221E-2</v>
+        <v>0.07882745649403322</v>
       </c>
       <c r="K4">
-        <v>-5.1578925410248888E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.005157892541024889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-9.4510886236455705E-2</v>
+        <v>-0.0945108862364557</v>
       </c>
       <c r="C5">
-        <v>6.3532726634190018E-2</v>
+        <v>0.06353272663419002</v>
       </c>
       <c r="D5">
         <v>0.1456325336773738</v>
@@ -721,25 +702,25 @@
         <v>1.029321037915564</v>
       </c>
       <c r="F5">
-        <v>0.27146894663930637</v>
+        <v>0.2714689466393064</v>
       </c>
       <c r="G5">
-        <v>-0.36663700450460701</v>
+        <v>-0.366637004504607</v>
       </c>
       <c r="H5">
-        <v>3.2771979168213117E-2</v>
+        <v>0.03277197916821312</v>
       </c>
       <c r="I5">
-        <v>-5.1238235258247333E-2</v>
+        <v>-0.05123823525824733</v>
       </c>
       <c r="J5">
-        <v>-0.48551138110258479</v>
+        <v>-0.4855113811025848</v>
       </c>
       <c r="K5">
-        <v>0.41746107572593349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4174610757259335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -750,66 +731,66 @@
         <v>1.044474962154762</v>
       </c>
       <c r="D6">
-        <v>0.27284001186517709</v>
+        <v>0.2728400118651771</v>
       </c>
       <c r="E6">
-        <v>-0.37139924717306122</v>
+        <v>-0.3713992471730612</v>
       </c>
       <c r="F6">
-        <v>2.5278523333166599E-2</v>
+        <v>0.0252785233331666</v>
       </c>
       <c r="G6">
-        <v>-5.9947443185133731E-2</v>
+        <v>-0.05994744318513373</v>
       </c>
       <c r="H6">
         <v>-0.4947615887729882</v>
       </c>
       <c r="I6">
-        <v>0.40797020079112573</v>
+        <v>0.4079702007911257</v>
       </c>
       <c r="J6">
-        <v>0.25651018730773623</v>
+        <v>0.2565101873077362</v>
       </c>
       <c r="K6">
-        <v>-0.37699729829315332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.3769972982931533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.20547405266267851</v>
+        <v>0.2054740526626785</v>
       </c>
       <c r="C7">
-        <v>-0.40066967051989488</v>
+        <v>-0.4006696705198949</v>
       </c>
       <c r="D7">
-        <v>1.237886182302533E-2</v>
+        <v>0.01237886182302533</v>
       </c>
       <c r="E7">
-        <v>-6.5816797103398605E-2</v>
+        <v>-0.06581679710339861</v>
       </c>
       <c r="F7">
-        <v>-0.49761125907659498</v>
+        <v>-0.497611259076595</v>
       </c>
       <c r="G7">
-        <v>0.40641783385144442</v>
+        <v>0.4064178338514444</v>
       </c>
       <c r="H7">
-        <v>0.25551528433338611</v>
+        <v>0.2555152843333861</v>
       </c>
       <c r="I7">
-        <v>-0.37775260000148908</v>
+        <v>-0.3777526000014891</v>
       </c>
       <c r="J7">
-        <v>4.9712505620071068E-2</v>
+        <v>0.04971250562007107</v>
       </c>
       <c r="K7">
         <v>-0.116592993421957</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -820,150 +801,150 @@
         <v>-0.1496551203866397</v>
       </c>
       <c r="D8">
-        <v>-0.55968910139291361</v>
+        <v>-0.5596891013929136</v>
       </c>
       <c r="E8">
-        <v>0.35399701700575331</v>
+        <v>0.3539970170057533</v>
       </c>
       <c r="F8">
         <v>0.2073791021907879</v>
       </c>
       <c r="G8">
-        <v>-0.42398804380236538</v>
+        <v>-0.4239880438023654</v>
       </c>
       <c r="H8">
-        <v>4.3201447020334016E-3</v>
+        <v>0.004320144702033402</v>
       </c>
       <c r="I8">
         <v>-0.1616114502496461</v>
       </c>
       <c r="J8">
-        <v>-3.8713047206825502E-2</v>
+        <v>-0.0387130472068255</v>
       </c>
       <c r="K8">
-        <v>8.6003702736811016E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.008600370273681102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.50735739590646167</v>
+        <v>-0.5073573959064617</v>
       </c>
       <c r="C9">
-        <v>0.39103808914146559</v>
+        <v>0.3910380891414656</v>
       </c>
       <c r="D9">
         <v>0.2380817384426481</v>
       </c>
       <c r="E9">
-        <v>-0.39612430134612509</v>
+        <v>-0.3961243013461251</v>
       </c>
       <c r="F9">
-        <v>3.092342225147637E-2</v>
+        <v>0.03092342225147637</v>
       </c>
       <c r="G9">
-        <v>-0.13556840393022571</v>
+        <v>-0.1355684039302257</v>
       </c>
       <c r="H9">
-        <v>-1.29189962667301E-2</v>
+        <v>-0.0129189962667301</v>
       </c>
       <c r="I9">
-        <v>3.4283744881417388E-2</v>
+        <v>0.03428374488141739</v>
       </c>
       <c r="J9">
-        <v>-0.36235411106915932</v>
+        <v>-0.3623541110691593</v>
       </c>
       <c r="K9">
-        <v>-0.10829989328190739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1082998932819074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.46248204912655871</v>
+        <v>0.4624820491265587</v>
       </c>
       <c r="C10">
-        <v>-0.27778691250618992</v>
+        <v>-0.2777869125061899</v>
       </c>
       <c r="D10">
         <v>0.1001968917909459</v>
       </c>
       <c r="E10">
-        <v>-8.8394635339606398E-2</v>
+        <v>-0.0883946353396064</v>
       </c>
       <c r="F10">
-        <v>2.4271917672650078E-2</v>
+        <v>0.02427191767265008</v>
       </c>
       <c r="G10">
-        <v>6.6966617133581263E-2</v>
+        <v>0.06696661713358126</v>
       </c>
       <c r="H10">
-        <v>-0.33170704186371408</v>
+        <v>-0.3317070418637141</v>
       </c>
       <c r="I10">
-        <v>-7.8572176441747466E-2</v>
+        <v>-0.07857217644174747</v>
       </c>
       <c r="J10">
         <v>0.1411290639539669</v>
       </c>
       <c r="K10">
-        <v>-8.5653655810264906E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.08565365581026491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-8.161995968788871E-2</v>
+        <v>-0.08161995968788871</v>
       </c>
       <c r="C11">
-        <v>-0.19554536176474491</v>
+        <v>-0.1955453617647449</v>
       </c>
       <c r="D11">
-        <v>-5.0091631979878593E-2</v>
+        <v>-0.05009163197987859</v>
       </c>
       <c r="E11">
-        <v>6.9870738574844826E-3</v>
+        <v>0.006987073857484483</v>
       </c>
       <c r="F11">
-        <v>-0.38537330728630309</v>
+        <v>-0.3853733072863031</v>
       </c>
       <c r="G11">
-        <v>-0.12946643176459349</v>
+        <v>-0.1294664317645935</v>
       </c>
       <c r="H11">
-        <v>9.1452407865126206E-2</v>
+        <v>0.09145240786512621</v>
       </c>
       <c r="I11">
-        <v>-0.13479527255658511</v>
+        <v>-0.1347952725565851</v>
       </c>
       <c r="J11">
-        <v>-0.32281105108883063</v>
+        <v>-0.3228110510888306</v>
       </c>
       <c r="K11">
-        <v>-0.35005409002127558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.3500540900212756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-2.4911137991875779E-2</v>
+        <v>-0.02491113799187578</v>
       </c>
       <c r="C12">
-        <v>2.6226921913103499E-2</v>
+        <v>0.0262269219131035</v>
       </c>
       <c r="D12">
         <v>-0.3686604243582895</v>
       </c>
       <c r="E12">
-        <v>-0.11386527976048651</v>
+        <v>-0.1138652797604865</v>
       </c>
       <c r="F12">
         <v>0.1065654758634297</v>
@@ -972,19 +953,19 @@
         <v>-0.1198964034796114</v>
       </c>
       <c r="H12">
-        <v>-0.30800614226068129</v>
+        <v>-0.3080061422606813</v>
       </c>
       <c r="I12">
-        <v>-0.33529038009462259</v>
+        <v>-0.3352903800946226</v>
       </c>
       <c r="J12">
-        <v>-0.52624962702335665</v>
+        <v>-0.5262496270233566</v>
       </c>
       <c r="K12">
         <v>-0.3090455393245764</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -992,127 +973,127 @@
         <v>-0.3547147284301006</v>
       </c>
       <c r="C13">
-        <v>-0.10413231646008241</v>
+        <v>-0.1041323164600824</v>
       </c>
       <c r="D13">
         <v>0.1145169546703413</v>
       </c>
       <c r="E13">
-        <v>-0.11271142296585759</v>
+        <v>-0.1127114229658576</v>
       </c>
       <c r="F13">
-        <v>-0.30115063552442878</v>
+        <v>-0.3011506355244288</v>
       </c>
       <c r="G13">
-        <v>-0.32857650904794861</v>
+        <v>-0.3285765090479486</v>
       </c>
       <c r="H13">
         <v>-0.5195966451170424</v>
       </c>
       <c r="I13">
-        <v>-0.30241873464524371</v>
+        <v>-0.3024187346452437</v>
       </c>
       <c r="J13">
-        <v>7.2644782951893916E-3</v>
+        <v>0.007264478295189392</v>
       </c>
       <c r="K13">
-        <v>-0.14704412830505739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1470441283050574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.26722043352842101</v>
+        <v>0.267220433528421</v>
       </c>
       <c r="C14">
-        <v>-3.9914429183266098E-2</v>
+        <v>-0.0399144291832661</v>
       </c>
       <c r="D14">
-        <v>-0.26277001245271719</v>
+        <v>-0.2627700124527172</v>
       </c>
       <c r="E14">
-        <v>-0.30493964942126578</v>
+        <v>-0.3049396494212658</v>
       </c>
       <c r="F14">
-        <v>-0.50227763457393204</v>
+        <v>-0.502277634573932</v>
       </c>
       <c r="G14">
-        <v>-0.28780694738377338</v>
+        <v>-0.2878069473837734</v>
       </c>
       <c r="H14">
-        <v>2.0716209226910198E-2</v>
+        <v>0.0207162092269102</v>
       </c>
       <c r="I14">
         <v>-0.1340894861272014</v>
       </c>
       <c r="J14">
-        <v>0.51727954353299554</v>
+        <v>0.5172795435329955</v>
       </c>
       <c r="K14">
-        <v>0.29986671140575161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2998667114057516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.34294145552158772</v>
+        <v>-0.3429414555215877</v>
       </c>
       <c r="C15">
         <v>-0.3442808007407876</v>
       </c>
       <c r="D15">
-        <v>-0.52389090305649799</v>
+        <v>-0.523890903056498</v>
       </c>
       <c r="E15">
-        <v>-0.30179316510244197</v>
+        <v>-0.301793165102442</v>
       </c>
       <c r="F15">
-        <v>1.0013506334002111E-2</v>
+        <v>0.01001350633400211</v>
       </c>
       <c r="G15">
-        <v>-0.14337865279190309</v>
+        <v>-0.1433786527919031</v>
       </c>
       <c r="H15">
-        <v>0.50859890590142609</v>
+        <v>0.5085989059014261</v>
       </c>
       <c r="I15">
-        <v>0.29144804922411183</v>
+        <v>0.2914480492241118</v>
       </c>
       <c r="J15">
-        <v>-9.1157802292601897E-2</v>
+        <v>-0.0911578022926019</v>
       </c>
       <c r="K15">
-        <v>0.38355677315122022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3835567731512202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.38543471884914537</v>
+        <v>-0.3854347188491454</v>
       </c>
       <c r="C16">
-        <v>-0.23319278384567471</v>
+        <v>-0.2331927838456747</v>
       </c>
       <c r="D16">
-        <v>4.8394176740538308E-2</v>
+        <v>0.04839417674053831</v>
       </c>
       <c r="E16">
-        <v>-0.11798323328461389</v>
+        <v>-0.1179832332846139</v>
       </c>
       <c r="F16">
-        <v>0.52841220418228607</v>
+        <v>0.5284122041822861</v>
       </c>
       <c r="G16">
-        <v>0.30886176020985989</v>
+        <v>0.3088617602098599</v>
       </c>
       <c r="H16">
-        <v>-7.4775605368756215E-2</v>
+        <v>-0.07477560536875621</v>
       </c>
       <c r="I16">
         <v>0.3994955511465666</v>
@@ -1121,339 +1102,339 @@
         <v>0.2404745781434928</v>
       </c>
       <c r="K16">
-        <v>0.29656780423290718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2965678042329072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.24506707561250299</v>
+        <v>0.245067075612503</v>
       </c>
       <c r="C17">
-        <v>-2.0556266847969351E-2</v>
+        <v>-0.02055626684796935</v>
       </c>
       <c r="D17">
-        <v>0.58175102705301773</v>
+        <v>0.5817510270530177</v>
       </c>
       <c r="E17">
-        <v>0.34281698565416041</v>
+        <v>0.3428169856541604</v>
       </c>
       <c r="F17">
-        <v>-4.9348723642914927E-2</v>
+        <v>-0.04934872364291493</v>
       </c>
       <c r="G17">
-        <v>0.42117059108183741</v>
+        <v>0.4211705910818374</v>
       </c>
       <c r="H17">
         <v>0.2604991662938107</v>
       </c>
       <c r="I17">
-        <v>0.31586638993783189</v>
+        <v>0.3158663899378319</v>
       </c>
       <c r="J17">
-        <v>2.5435062045918171</v>
+        <v>2.543506204591817</v>
       </c>
       <c r="K17">
         <v>10.03430721618442</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>7.9232045348177071E-3</v>
+        <v>0.007923204534817707</v>
       </c>
       <c r="C18">
-        <v>0.59774409484201407</v>
+        <v>0.5977440948420141</v>
       </c>
       <c r="D18">
-        <v>0.35324556121783768</v>
+        <v>0.3532455612178377</v>
       </c>
       <c r="E18">
-        <v>-4.1349018787316838E-2</v>
+        <v>-0.04134901878731684</v>
       </c>
       <c r="F18">
-        <v>0.42810851675299139</v>
+        <v>0.4281085167529914</v>
       </c>
       <c r="G18">
-        <v>0.26697299382106993</v>
+        <v>0.2669729938210699</v>
       </c>
       <c r="H18">
-        <v>0.32213736366850609</v>
+        <v>0.3221373636685061</v>
       </c>
       <c r="I18">
-        <v>2.5496885137206542</v>
+        <v>2.549688513720654</v>
       </c>
       <c r="J18">
         <v>10.0404507717668</v>
       </c>
       <c r="K18">
-        <v>-6.2905894879687452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-6.290589487968745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.51627816528385462</v>
+        <v>0.5162781652838546</v>
       </c>
       <c r="C19">
-        <v>0.30407545094572669</v>
+        <v>0.3040754509457267</v>
       </c>
       <c r="D19">
-        <v>-7.6350181917041626E-2</v>
+        <v>-0.07635018191704163</v>
       </c>
       <c r="E19">
-        <v>0.39929727850819918</v>
+        <v>0.3992972785081992</v>
       </c>
       <c r="F19">
-        <v>0.24086662450326221</v>
+        <v>0.2408666245032622</v>
       </c>
       <c r="G19">
-        <v>0.29721303761860629</v>
+        <v>0.2972130376186063</v>
       </c>
       <c r="H19">
-        <v>2.5252807825262629</v>
+        <v>2.525280782526263</v>
       </c>
       <c r="I19">
-        <v>10.016268825894789</v>
+        <v>10.01626882589479</v>
       </c>
       <c r="J19">
         <v>-6.314672744602011</v>
       </c>
       <c r="K19">
-        <v>0.72533322972173697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.725333229721737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.34190098489138893</v>
+        <v>0.3419009848913889</v>
       </c>
       <c r="C20">
-        <v>-7.5528594465656407E-2</v>
+        <v>-0.07552859446565641</v>
       </c>
       <c r="D20">
-        <v>0.38383937382216399</v>
+        <v>0.383839373822164</v>
       </c>
       <c r="E20">
         <v>0.2183529830502082</v>
       </c>
       <c r="F20">
-        <v>0.27163696430084322</v>
+        <v>0.2716369643008432</v>
       </c>
       <c r="G20">
-        <v>2.4983756766301481</v>
+        <v>2.498375676630148</v>
       </c>
       <c r="H20">
-        <v>9.9887869340619737</v>
+        <v>9.988786934061974</v>
       </c>
       <c r="I20">
-        <v>-6.3424049574479007</v>
+        <v>-6.342404957447901</v>
       </c>
       <c r="J20">
-        <v>0.69749237829010791</v>
+        <v>0.6974923782901079</v>
       </c>
       <c r="K20">
         <v>1.006927789256145</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.30311553996256679</v>
+        <v>-0.3031155399625668</v>
       </c>
       <c r="C21">
-        <v>0.27503849245976669</v>
+        <v>0.2750384924597667</v>
       </c>
       <c r="D21">
         <v>0.1623823135173533</v>
       </c>
       <c r="E21">
-        <v>0.23862515954974911</v>
+        <v>0.2386251595497491</v>
       </c>
       <c r="F21">
-        <v>2.4753639290065368</v>
+        <v>2.475363929006537</v>
       </c>
       <c r="G21">
-        <v>9.9701298821849544</v>
+        <v>9.970129882184954</v>
       </c>
       <c r="H21">
-        <v>-6.3591656388539022</v>
+        <v>-6.359165638853902</v>
       </c>
       <c r="I21">
-        <v>0.68155752191534069</v>
+        <v>0.6815575219153407</v>
       </c>
       <c r="J21">
-        <v>0.99135256082636014</v>
+        <v>0.9913525608263601</v>
       </c>
       <c r="K21">
-        <v>-1.0279901951232879</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.027990195123288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.23854109479193031</v>
+        <v>0.2385410947919303</v>
       </c>
       <c r="C22">
-        <v>0.13739912984636679</v>
+        <v>0.1373991298463668</v>
       </c>
       <c r="D22">
-        <v>0.21620223699217231</v>
+        <v>0.2162022369921723</v>
       </c>
       <c r="E22">
-        <v>2.4530719558951128</v>
+        <v>2.453071955895113</v>
       </c>
       <c r="F22">
-        <v>9.9475097250879525</v>
+        <v>9.947509725087953</v>
       </c>
       <c r="G22">
-        <v>-6.3820799077433037</v>
+        <v>-6.382079907743304</v>
       </c>
       <c r="H22">
-        <v>0.65845584380684996</v>
+        <v>0.65845584380685</v>
       </c>
       <c r="I22">
-        <v>0.96814598670100316</v>
+        <v>0.9681459867010032</v>
       </c>
       <c r="J22">
         <v>-1.051251586965475</v>
       </c>
       <c r="K22">
-        <v>-1.2612192561056139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.261219256105614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.24286976895424631</v>
+        <v>0.2428697689542463</v>
       </c>
       <c r="C23">
-        <v>0.26841196049812588</v>
+        <v>0.2684119604981259</v>
       </c>
       <c r="D23">
-        <v>2.4844148823786458</v>
+        <v>2.484414882378646</v>
       </c>
       <c r="E23">
-        <v>9.9706847783551833</v>
+        <v>9.970684778355183</v>
       </c>
       <c r="F23">
-        <v>-6.3621019403622823</v>
+        <v>-6.362101940362282</v>
       </c>
       <c r="G23">
-        <v>0.67718239776652356</v>
+        <v>0.6771823977665236</v>
       </c>
       <c r="H23">
-        <v>0.98638270689683916</v>
+        <v>0.9863827068968392</v>
       </c>
       <c r="I23">
-        <v>-1.0332066002853679</v>
+        <v>-1.033206600285368</v>
       </c>
       <c r="J23">
-        <v>-1.2432493190916369</v>
+        <v>-1.243249319091637</v>
       </c>
       <c r="K23">
-        <v>0.81673398578940781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.8167339857894078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>9.9847904809624938E-2</v>
+        <v>0.09984790480962494</v>
       </c>
       <c r="C24">
-        <v>2.4073866554422092</v>
+        <v>2.407386655442209</v>
       </c>
       <c r="D24">
-        <v>9.9299650177950927</v>
+        <v>9.929965017795093</v>
       </c>
       <c r="E24">
-        <v>-6.3884201900147799</v>
+        <v>-6.38842019001478</v>
       </c>
       <c r="F24">
-        <v>0.65657659583305106</v>
+        <v>0.6565765958330511</v>
       </c>
       <c r="G24">
-        <v>0.96804285400910906</v>
+        <v>0.9680428540091091</v>
       </c>
       <c r="H24">
-        <v>-1.0506475941345319</v>
+        <v>-1.050647594134532</v>
       </c>
       <c r="I24">
-        <v>-1.2603337416145379</v>
+        <v>-1.260333741614538</v>
       </c>
       <c r="J24">
-        <v>0.79979101701088884</v>
+        <v>0.7997910170108888</v>
       </c>
       <c r="K24">
         <v>-0.2054449384519543</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2.3777239202905842</v>
+        <v>2.377723920290584</v>
       </c>
       <c r="C25">
-        <v>9.9057335228170089</v>
+        <v>9.905733522817009</v>
       </c>
       <c r="D25">
-        <v>-6.4105920598084358</v>
+        <v>-6.410592059808436</v>
       </c>
       <c r="E25">
-        <v>0.63518436194462957</v>
+        <v>0.6351843619446296</v>
       </c>
       <c r="F25">
-        <v>0.94694510040354685</v>
+        <v>0.9469451004035468</v>
       </c>
       <c r="G25">
-        <v>-1.0716343822608989</v>
+        <v>-1.071634382260899</v>
       </c>
       <c r="H25">
-        <v>-1.2812788257224059</v>
+        <v>-1.281278825722406</v>
       </c>
       <c r="I25">
-        <v>0.77886156074998014</v>
+        <v>0.7788615607499801</v>
       </c>
       <c r="J25">
-        <v>-0.22636855754651039</v>
+        <v>-0.2263685575465104</v>
       </c>
       <c r="K25">
-        <v>-0.14106112403680091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-0.1410611240368009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>9.8516169513799579</v>
+        <v>9.851616951379958</v>
       </c>
       <c r="C26">
-        <v>-6.4277501566588464</v>
+        <v>-6.427750156658846</v>
       </c>
       <c r="D26">
-        <v>0.63311675802047429</v>
+        <v>0.6331167580204743</v>
       </c>
       <c r="E26">
-        <v>0.95102873525010378</v>
+        <v>0.9510287352501038</v>
       </c>
       <c r="F26">
         <v>-1.065043956288229</v>
@@ -1462,59 +1443,59 @@
         <v>-1.273667085429927</v>
       </c>
       <c r="H26">
-        <v>0.78688929900405602</v>
+        <v>0.786889299004056</v>
       </c>
       <c r="I26">
         <v>-0.2181714176257043</v>
       </c>
       <c r="J26">
-        <v>-0.13279501687757769</v>
+        <v>-0.1327950168775777</v>
       </c>
       <c r="K26">
         <v>0.2072416961550223</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-7.5084331817440848</v>
+        <v>-7.508433181744085</v>
       </c>
       <c r="C27">
-        <v>0.16309552002212929</v>
+        <v>0.1630955200221293</v>
       </c>
       <c r="D27">
-        <v>0.70699590075480534</v>
+        <v>0.7069959007548053</v>
       </c>
       <c r="E27">
         <v>-1.22930727779398</v>
       </c>
       <c r="F27">
-        <v>-1.4100838038995489</v>
+        <v>-1.410083803899549</v>
       </c>
       <c r="G27">
         <v>0.6601608170081259</v>
       </c>
       <c r="H27">
-        <v>-0.34153517758941959</v>
+        <v>-0.3415351775894196</v>
       </c>
       <c r="I27">
-        <v>-0.25499205171167189</v>
+        <v>-0.2549920517116719</v>
       </c>
       <c r="J27">
-        <v>8.5448521450655984E-2</v>
+        <v>0.08544852145065598</v>
       </c>
       <c r="K27">
-        <v>0.41560286858140288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4156028685814029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1.5076176405294659</v>
+        <v>-1.507617640529466</v>
       </c>
       <c r="C28">
         <v>1.664443971041772</v>
@@ -1523,238 +1504,238 @@
         <v>-1.509367023909016</v>
       </c>
       <c r="E28">
-        <v>-1.2910175850528871</v>
+        <v>-1.291017585052887</v>
       </c>
       <c r="F28">
-        <v>0.60417775393654705</v>
+        <v>0.604177753936547</v>
       </c>
       <c r="G28">
-        <v>-0.33870270317585222</v>
+        <v>-0.3387027031758522</v>
       </c>
       <c r="H28">
         <v>-0.2772131240639395</v>
       </c>
       <c r="I28">
-        <v>7.1832829539516391E-2</v>
+        <v>0.07183282953951639</v>
       </c>
       <c r="J28">
-        <v>0.39838940920979132</v>
+        <v>0.3983894092097913</v>
       </c>
       <c r="K28">
-        <v>0.31757735969630912</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3175773596963091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>6.5329498933675012E-4</v>
+        <v>0.0006532949893367501</v>
       </c>
       <c r="C29">
-        <v>-0.79533021272365356</v>
+        <v>-0.7953302127236536</v>
       </c>
       <c r="D29">
         <v>-1.309977244691565</v>
       </c>
       <c r="E29">
-        <v>0.67912157562464881</v>
+        <v>0.6791215756246488</v>
       </c>
       <c r="F29">
-        <v>-0.26722629476406839</v>
+        <v>-0.2672262947640684</v>
       </c>
       <c r="G29">
-        <v>-0.18944527453942159</v>
+        <v>-0.1894452745394216</v>
       </c>
       <c r="H29">
         <v>0.1451221365760503</v>
       </c>
       <c r="I29">
-        <v>0.47761087885717118</v>
+        <v>0.4776108788571712</v>
       </c>
       <c r="J29">
-        <v>0.39548407883941877</v>
+        <v>0.3954840788394188</v>
       </c>
       <c r="K29">
-        <v>6.6641083466682405E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.0666410834666824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.74192823794679219</v>
+        <v>-0.7419282379467922</v>
       </c>
       <c r="C30">
         <v>-1.166777999412832</v>
       </c>
       <c r="D30">
-        <v>0.73048990811181813</v>
+        <v>0.7304899081118181</v>
       </c>
       <c r="E30">
         <v>-0.184459248796779</v>
       </c>
       <c r="F30">
-        <v>-9.8384075300570029E-2</v>
+        <v>-0.09838407530057003</v>
       </c>
       <c r="G30">
         <v>0.2250485054956099</v>
       </c>
       <c r="H30">
-        <v>0.56015186151897101</v>
+        <v>0.560151861518971</v>
       </c>
       <c r="I30">
-        <v>0.47940642769389108</v>
+        <v>0.4794064276938911</v>
       </c>
       <c r="J30">
         <v>0.1495229262092557</v>
       </c>
       <c r="K30">
-        <v>0.45035201562780591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.4503520156278059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1.0465879429183611</v>
+        <v>-1.046587942918361</v>
       </c>
       <c r="C31">
-        <v>0.47670428993760688</v>
+        <v>0.4767042899376069</v>
       </c>
       <c r="D31">
-        <v>-8.9186857414716714E-2</v>
+        <v>-0.08918685741471671</v>
       </c>
       <c r="E31">
-        <v>-2.6069361491420581E-2</v>
+        <v>-0.02606936149142058</v>
       </c>
       <c r="F31">
-        <v>0.20111691683136601</v>
+        <v>0.201116916831366</v>
       </c>
       <c r="G31">
-        <v>0.58101084858998497</v>
+        <v>0.581010848589985</v>
       </c>
       <c r="H31">
-        <v>0.51070432092653328</v>
+        <v>0.5107043209265333</v>
       </c>
       <c r="I31">
-        <v>0.16380767341933161</v>
+        <v>0.1638076734193316</v>
       </c>
       <c r="J31">
-        <v>0.46831797516355628</v>
+        <v>0.4683179751635563</v>
       </c>
       <c r="K31">
-        <v>0.24789571991610601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.247895719916106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-4.2428944166694071E-2</v>
+        <v>-0.04242894416669407</v>
       </c>
       <c r="C32">
         <v>-0.1802303067680682</v>
       </c>
       <c r="D32">
-        <v>0.22439387137671049</v>
+        <v>0.2243938713767105</v>
       </c>
       <c r="E32">
         <v>0.1646630556268408</v>
       </c>
       <c r="F32">
-        <v>0.55218258473007276</v>
+        <v>0.5521825847300728</v>
       </c>
       <c r="G32">
-        <v>0.57327489683118693</v>
+        <v>0.5732748968311869</v>
       </c>
       <c r="H32">
-        <v>0.18578457218463981</v>
+        <v>0.1857845721846398</v>
       </c>
       <c r="I32">
-        <v>0.47723492691780811</v>
+        <v>0.4772349269178081</v>
       </c>
       <c r="J32">
-        <v>0.27545626040305721</v>
+        <v>0.2754562604030572</v>
       </c>
       <c r="K32">
-        <v>0.39607276236888678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3960727623688868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.23460869199262799</v>
+        <v>-0.234608691992628</v>
       </c>
       <c r="C33">
-        <v>0.23919642231650229</v>
+        <v>0.2391964223165023</v>
       </c>
       <c r="D33">
-        <v>0.18788111548888181</v>
+        <v>0.1878811154888818</v>
       </c>
       <c r="E33">
-        <v>0.55149645503711631</v>
+        <v>0.5514964550371163</v>
       </c>
       <c r="F33">
-        <v>0.57727785647345742</v>
+        <v>0.5772778564734574</v>
       </c>
       <c r="G33">
-        <v>0.19591792018164761</v>
+        <v>0.1959179201816476</v>
       </c>
       <c r="H33">
-        <v>0.48394227443625421</v>
+        <v>0.4839422744362542</v>
       </c>
       <c r="I33">
-        <v>0.28125947580720029</v>
+        <v>0.2812594758072003</v>
       </c>
       <c r="J33">
-        <v>0.40329451830699342</v>
+        <v>0.4032945183069934</v>
       </c>
       <c r="K33">
-        <v>5.7693408908631123E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.05769340890863112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8.7079099363794488E-2</v>
+        <v>0.08707909936379449</v>
       </c>
       <c r="C34">
         <v>0.1849415347999282</v>
       </c>
       <c r="D34">
-        <v>0.60876197685270195</v>
+        <v>0.6087619768527019</v>
       </c>
       <c r="E34">
-        <v>0.56203577447169561</v>
+        <v>0.5620357744716956</v>
       </c>
       <c r="F34">
         <v>0.1918372142989769</v>
       </c>
       <c r="G34">
-        <v>0.49820522728343952</v>
+        <v>0.4982052272834395</v>
       </c>
       <c r="H34">
-        <v>0.28435992680966538</v>
+        <v>0.2843599268096654</v>
       </c>
       <c r="I34">
-        <v>0.40521316375637079</v>
+        <v>0.4052131637563708</v>
       </c>
       <c r="J34">
-        <v>6.363726260065683E-2</v>
+        <v>0.06363726260065683</v>
       </c>
       <c r="K34">
-        <v>0.37106324449338218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.3710632444933822</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1762,226 +1743,226 @@
         <v>0.2343920533817323</v>
       </c>
       <c r="C35">
-        <v>0.56210240590302574</v>
+        <v>0.5621024059030257</v>
       </c>
       <c r="D35">
-        <v>0.51300469406684068</v>
+        <v>0.5130046940668407</v>
       </c>
       <c r="E35">
-        <v>0.17213868529182369</v>
+        <v>0.1721386852918237</v>
       </c>
       <c r="F35">
-        <v>0.46761362204724161</v>
+        <v>0.4676136220472416</v>
       </c>
       <c r="G35">
         <v>0.2494089190592719</v>
       </c>
       <c r="H35">
-        <v>0.37520454862988267</v>
+        <v>0.3752045486298827</v>
       </c>
       <c r="I35">
-        <v>3.2961375863442333E-2</v>
+        <v>0.03296137586344233</v>
       </c>
       <c r="J35">
-        <v>0.33919119229468581</v>
+        <v>0.3391911922946858</v>
       </c>
       <c r="K35">
-        <v>7.7919706976631975E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.07791970697663197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.71366379013838044</v>
+        <v>0.7136637901383804</v>
       </c>
       <c r="C36">
-        <v>0.50456200196407719</v>
+        <v>0.5045620019640772</v>
       </c>
       <c r="D36">
         <v>0.1101462997413605</v>
       </c>
       <c r="E36">
-        <v>0.47695054469400933</v>
+        <v>0.4769505446940093</v>
       </c>
       <c r="F36">
         <v>0.2460407126934151</v>
       </c>
       <c r="G36">
-        <v>0.35503062003210872</v>
+        <v>0.3550306200321087</v>
       </c>
       <c r="H36">
-        <v>2.3594641426671611E-2</v>
+        <v>0.02359464142667161</v>
       </c>
       <c r="I36">
-        <v>0.33058170279391969</v>
+        <v>0.3305817027939197</v>
       </c>
       <c r="J36">
-        <v>6.5665426632828594E-2</v>
+        <v>0.06566542663282859</v>
       </c>
       <c r="K36">
-        <v>4.1421126292376292E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.04142112629237629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.66117390892572137</v>
+        <v>0.6611739089257214</v>
       </c>
       <c r="C37">
-        <v>0.24246617728610639</v>
+        <v>0.2424661772861064</v>
       </c>
       <c r="D37">
-        <v>0.34343746137456099</v>
+        <v>0.343437461374561</v>
       </c>
       <c r="E37">
         <v>0.2316648163334098</v>
       </c>
       <c r="F37">
-        <v>0.37504633839998491</v>
+        <v>0.3750463383999849</v>
       </c>
       <c r="G37">
-        <v>-8.6030852191935903E-3</v>
+        <v>-0.00860308521919359</v>
       </c>
       <c r="H37">
-        <v>0.30935653100367999</v>
+        <v>0.30935653100368</v>
       </c>
       <c r="I37">
-        <v>5.6410301744052482E-2</v>
+        <v>0.05641030174405248</v>
       </c>
       <c r="J37">
-        <v>2.36668180707795E-2</v>
+        <v>0.0236668180707795</v>
       </c>
       <c r="K37">
-        <v>0.21637266715086581</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.2163726671508658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.52173245889807995</v>
+        <v>0.52173245889808</v>
       </c>
       <c r="C38">
         <v>0.3916150992080441</v>
       </c>
       <c r="D38">
-        <v>7.3140397696097398E-2</v>
+        <v>0.0731403976960974</v>
       </c>
       <c r="E38">
-        <v>0.37885070659401082</v>
+        <v>0.3788507065940108</v>
       </c>
       <c r="F38">
-        <v>-6.5747834923131632E-3</v>
+        <v>-0.006574783492313163</v>
       </c>
       <c r="G38">
-        <v>0.25956965816178651</v>
+        <v>0.2595696581617865</v>
       </c>
       <c r="H38">
-        <v>2.912912904287851E-2</v>
+        <v>0.02912912904287851</v>
       </c>
       <c r="I38">
-        <v>3.6404811784121189E-3</v>
+        <v>0.003640481178412119</v>
       </c>
       <c r="J38">
-        <v>0.18598767116614759</v>
+        <v>0.1859876711661476</v>
       </c>
       <c r="K38">
-        <v>0.14147066322833121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1414706632283312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.62053357708466828</v>
+        <v>0.6205335770846683</v>
       </c>
       <c r="C39">
         <v>0.1160860902143776</v>
       </c>
       <c r="D39">
-        <v>0.25855369122756572</v>
+        <v>0.2585536912275657</v>
       </c>
       <c r="E39">
-        <v>6.701456605825995E-4</v>
+        <v>0.0006701456605825995</v>
       </c>
       <c r="F39">
-        <v>0.26608053333632398</v>
+        <v>0.266080533336324</v>
       </c>
       <c r="G39">
-        <v>-4.943883244233005E-3</v>
+        <v>-0.004943883244233005</v>
       </c>
       <c r="H39">
-        <v>-1.3312900822370881E-2</v>
+        <v>-0.01331290082237088</v>
       </c>
       <c r="I39">
-        <v>0.17492423551604541</v>
+        <v>0.1749242355160454</v>
       </c>
       <c r="J39">
         <v>0.122467952301144</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.39242969300424929</v>
+        <v>0.3924296930042493</v>
       </c>
       <c r="C40">
-        <v>0.32223062245560219</v>
+        <v>0.3222306224556022</v>
       </c>
       <c r="D40">
-        <v>-0.13423899904841419</v>
+        <v>-0.1342389990484142</v>
       </c>
       <c r="E40">
-        <v>0.28362046274920671</v>
+        <v>0.2836204627492067</v>
       </c>
       <c r="F40">
-        <v>1.1989192493856989E-2</v>
+        <v>0.01198919249385699</v>
       </c>
       <c r="G40">
-        <v>-4.5174620270868798E-2</v>
+        <v>-0.0451746202708688</v>
       </c>
       <c r="H40">
-        <v>0.16390334664083661</v>
+        <v>0.1639033466408366</v>
       </c>
       <c r="I40">
         <v>0.1183294966498535</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.47479748663327831</v>
+        <v>0.4747974866332783</v>
       </c>
       <c r="C41">
-        <v>-6.9863228618143675E-2</v>
+        <v>-0.06986322861814367</v>
       </c>
       <c r="D41">
-        <v>0.20922508496318351</v>
+        <v>0.2092250849631835</v>
       </c>
       <c r="E41">
-        <v>2.5018916268582488E-2</v>
+        <v>0.02501891626858249</v>
       </c>
       <c r="F41">
-        <v>-2.439031925178908E-2</v>
+        <v>-0.02439031925178908</v>
       </c>
       <c r="G41">
-        <v>0.15312888921239279</v>
+        <v>0.1531288892123928</v>
       </c>
       <c r="H41">
         <v>0.1184450969585793</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,84 +1970,84 @@
         <v>0.2191407266580338</v>
       </c>
       <c r="C42">
-        <v>0.22229723251795111</v>
+        <v>0.2222972325179511</v>
       </c>
       <c r="D42">
-        <v>-9.1853727567930907E-2</v>
+        <v>-0.09185372756793091</v>
       </c>
       <c r="E42">
-        <v>2.5767971977310178E-3</v>
+        <v>0.002576797197731018</v>
       </c>
       <c r="F42">
-        <v>0.16131680274880111</v>
+        <v>0.1613168027488011</v>
       </c>
       <c r="G42">
-        <v>8.8158456931728191E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.08815845693172819</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.22487188480423301</v>
+        <v>0.224871884804233</v>
       </c>
       <c r="C43">
-        <v>-1.6756041629248899E-2</v>
+        <v>-0.0167560416292489</v>
       </c>
       <c r="D43">
-        <v>-2.441659463916648E-2</v>
+        <v>-0.02441659463916648</v>
       </c>
       <c r="E43">
-        <v>0.15403638444925191</v>
+        <v>0.1540363844492519</v>
       </c>
       <c r="F43">
         <v>0.105470015037597</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.17129493473749141</v>
+        <v>0.1712949347374914</v>
       </c>
       <c r="C44">
-        <v>-4.3289029112260402E-2</v>
+        <v>-0.0432890291122604</v>
       </c>
       <c r="D44">
-        <v>9.0437421631856058E-2</v>
+        <v>0.09043742163185606</v>
       </c>
       <c r="E44">
-        <v>0.12712495198613541</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1271249519861354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-1.257980384821508E-2</v>
+        <v>-0.01257980384821508</v>
       </c>
       <c r="C45">
-        <v>0.13951872815622651</v>
+        <v>0.1395187281562265</v>
       </c>
       <c r="D45">
         <v>0.1036987463175434</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.27329970816032922</v>
+        <v>0.2732997081603292</v>
       </c>
       <c r="C46">
-        <v>4.9487729508793793E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.04948772950879379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2074,7 +2055,7 @@
         <v>0.1075450023515467</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>

--- a/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-0.5538904760917707</v>
-      </c>
-      <c r="C2">
-        <v>-0.22429680584912</v>
-      </c>
-      <c r="D2">
-        <v>-1.361049189530805</v>
-      </c>
-      <c r="E2">
-        <v>-0.1613477328524759</v>
-      </c>
-      <c r="F2">
-        <v>-0.361377804162835</v>
-      </c>
-      <c r="G2">
-        <v>0.3204948635730595</v>
-      </c>
-      <c r="H2">
-        <v>-0.3613650642836566</v>
-      </c>
-      <c r="I2">
-        <v>-0.161363064463512</v>
-      </c>
-      <c r="J2">
-        <v>-0.06136253150489041</v>
-      </c>
-      <c r="K2">
-        <v>0.8299565106645517</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-1.081102260872925</v>
-      </c>
-      <c r="C3">
-        <v>0.04137781086417092</v>
-      </c>
-      <c r="D3">
-        <v>-0.1846566882668911</v>
-      </c>
-      <c r="E3">
-        <v>0.4879741509029296</v>
-      </c>
-      <c r="F3">
-        <v>-0.1972093055938172</v>
-      </c>
-      <c r="G3">
-        <v>0.001594998734098796</v>
-      </c>
-      <c r="H3">
-        <v>0.1011638359404186</v>
-      </c>
-      <c r="I3">
-        <v>0.9923272761706644</v>
-      </c>
-      <c r="J3">
-        <v>0.2376717187312041</v>
-      </c>
-      <c r="K3">
-        <v>-0.399067971085485</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.3513878918070996</v>
-      </c>
-      <c r="C4">
-        <v>0.7548272352809304</v>
-      </c>
-      <c r="D4">
-        <v>-0.04160398680330452</v>
-      </c>
-      <c r="E4">
-        <v>0.1113051495511781</v>
-      </c>
-      <c r="F4">
-        <v>0.1919495663995574</v>
-      </c>
-      <c r="G4">
-        <v>1.075312856923557</v>
-      </c>
-      <c r="H4">
-        <v>0.3174434034324706</v>
-      </c>
-      <c r="I4">
-        <v>-0.3206201056622259</v>
-      </c>
-      <c r="J4">
-        <v>0.07882745649403322</v>
-      </c>
-      <c r="K4">
-        <v>-0.005157892541024889</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>-0.0945108862364557</v>
-      </c>
-      <c r="C5">
-        <v>0.06353272663419002</v>
-      </c>
-      <c r="D5">
-        <v>0.1456325336773738</v>
-      </c>
-      <c r="E5">
-        <v>1.029321037915564</v>
-      </c>
-      <c r="F5">
-        <v>0.2714689466393064</v>
-      </c>
-      <c r="G5">
-        <v>-0.366637004504607</v>
-      </c>
-      <c r="H5">
-        <v>0.03277197916821312</v>
-      </c>
-      <c r="I5">
-        <v>-0.05123823525824733</v>
-      </c>
-      <c r="J5">
-        <v>-0.4855113811025848</v>
-      </c>
-      <c r="K5">
-        <v>0.4174610757259335</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.191155761739875</v>
-      </c>
-      <c r="C6">
-        <v>1.044474962154762</v>
-      </c>
-      <c r="D6">
-        <v>0.2728400118651771</v>
-      </c>
-      <c r="E6">
-        <v>-0.3713992471730612</v>
-      </c>
-      <c r="F6">
-        <v>0.0252785233331666</v>
-      </c>
-      <c r="G6">
-        <v>-0.05994744318513373</v>
-      </c>
-      <c r="H6">
-        <v>-0.4947615887729882</v>
-      </c>
-      <c r="I6">
-        <v>0.4079702007911257</v>
-      </c>
-      <c r="J6">
-        <v>0.2565101873077362</v>
-      </c>
-      <c r="K6">
-        <v>-0.3769972982931533</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2054740526626785</v>
+        <v>-2.153890476091771</v>
       </c>
       <c r="C7">
-        <v>-0.4006696705198949</v>
+        <v>-0.5595325243428803</v>
       </c>
       <c r="D7">
-        <v>0.01237886182302533</v>
+        <v>-0.2258134710370447</v>
       </c>
       <c r="E7">
-        <v>-0.06581679710339861</v>
+        <v>-1.361347732852476</v>
       </c>
       <c r="F7">
-        <v>-0.497611259076595</v>
+        <v>-0.161377804162835</v>
       </c>
       <c r="G7">
-        <v>0.4064178338514444</v>
+        <v>-0.3613705322248684</v>
       </c>
       <c r="H7">
-        <v>0.2555152843333861</v>
+        <v>0.3205003315142713</v>
       </c>
       <c r="I7">
-        <v>-0.3777526000014891</v>
+        <v>-0.361363064463512</v>
       </c>
       <c r="J7">
-        <v>0.04971250562007107</v>
+        <v>-0.1613625315048904</v>
       </c>
       <c r="K7">
-        <v>-0.116592993421957</v>
+        <v>-0.06136242781135051</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.1206087786167467</v>
+        <v>0.05413345762083493</v>
       </c>
       <c r="C8">
-        <v>-0.1496551203866397</v>
+        <v>-1.158622189135829</v>
       </c>
       <c r="D8">
-        <v>-0.5596891013929136</v>
+        <v>0.01534331173310893</v>
       </c>
       <c r="E8">
-        <v>0.3539970170057533</v>
+        <v>-0.1938912448949983</v>
       </c>
       <c r="F8">
-        <v>0.2073791021907879</v>
+        <v>0.4846560902041107</v>
       </c>
       <c r="G8">
-        <v>-0.4239880438023654</v>
+        <v>-0.1984050012659012</v>
       </c>
       <c r="H8">
-        <v>0.004320144702033402</v>
+        <v>0.001163835940418634</v>
       </c>
       <c r="I8">
-        <v>-0.1616114502496461</v>
+        <v>0.1010083376947622</v>
       </c>
       <c r="J8">
-        <v>-0.0387130472068255</v>
+        <v>0.9922711941142639</v>
       </c>
       <c r="K8">
-        <v>0.008600370273681102</v>
+        <v>0.2376514920073574</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.5073573959064617</v>
+        <v>0.5513878918070996</v>
       </c>
       <c r="C9">
-        <v>0.3910380891414656</v>
+        <v>0.0729618394830025</v>
       </c>
       <c r="D9">
-        <v>0.2380817384426481</v>
+        <v>0.6402614089946234</v>
       </c>
       <c r="E9">
-        <v>-0.3961243013461251</v>
+        <v>-0.08869485044882192</v>
       </c>
       <c r="F9">
-        <v>0.03092342225147637</v>
+        <v>0.09194956639955743</v>
       </c>
       <c r="G9">
-        <v>-0.1355684039302257</v>
+        <v>0.183993918447655</v>
       </c>
       <c r="H9">
-        <v>-0.0129189962667301</v>
+        <v>1.07204287881553</v>
       </c>
       <c r="I9">
-        <v>0.03428374488141739</v>
+        <v>0.3160993574306164</v>
       </c>
       <c r="J9">
-        <v>-0.3623541110691593</v>
+        <v>-0.3211725435059667</v>
       </c>
       <c r="K9">
-        <v>-0.1082998932819074</v>
+        <v>0.07860039018024934</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4624820491265587</v>
+        <v>0.5873545095614722</v>
       </c>
       <c r="C10">
-        <v>-0.2777869125061899</v>
+        <v>-0.13646727336581</v>
       </c>
       <c r="D10">
-        <v>0.1001968917909459</v>
+        <v>0.0456325336773738</v>
       </c>
       <c r="E10">
-        <v>-0.0883946353396064</v>
+        <v>0.138002099439662</v>
       </c>
       <c r="F10">
-        <v>0.02427191767265008</v>
+        <v>1.026068422022366</v>
       </c>
       <c r="G10">
-        <v>0.06696661713358126</v>
+        <v>0.2700824585882354</v>
       </c>
       <c r="H10">
-        <v>-0.3317070418637141</v>
+        <v>-0.3672280208317868</v>
       </c>
       <c r="I10">
-        <v>-0.07857217644174747</v>
+        <v>0.03252004746302689</v>
       </c>
       <c r="J10">
-        <v>0.1411290639539669</v>
+        <v>-0.05134562583471514</v>
       </c>
       <c r="K10">
-        <v>-0.08565365581026491</v>
+        <v>-0.4855571583337815</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.08161995968788871</v>
+        <v>0.091155761739875</v>
       </c>
       <c r="C11">
-        <v>-0.1955453617647449</v>
+        <v>0.1531560236788593</v>
       </c>
       <c r="D11">
-        <v>-0.05009163197987859</v>
+        <v>1.027439487248237</v>
       </c>
       <c r="E11">
-        <v>0.006987073857484483</v>
+        <v>0.2653202159197812</v>
       </c>
       <c r="F11">
-        <v>-0.3853733072863031</v>
+        <v>-0.3747214766668334</v>
       </c>
       <c r="G11">
-        <v>-0.1294664317645935</v>
+        <v>0.02381083953614049</v>
       </c>
       <c r="H11">
-        <v>0.09145240786512621</v>
+        <v>-0.06059583350511849</v>
       </c>
       <c r="I11">
-        <v>-0.1347952725565851</v>
+        <v>-0.4950480332685893</v>
       </c>
       <c r="J11">
-        <v>-0.3228110510888306</v>
+        <v>0.4078436559504547</v>
       </c>
       <c r="K11">
-        <v>-0.3500540900212756</v>
+        <v>0.2564542825969143</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.02491113799187578</v>
+        <v>0.9600735280457383</v>
       </c>
       <c r="C12">
-        <v>0.0262269219131035</v>
+        <v>0.2360497925729474</v>
       </c>
       <c r="D12">
-        <v>-0.3686604243582895</v>
+        <v>-0.3876211381769746</v>
       </c>
       <c r="E12">
-        <v>-0.1138652797604865</v>
+        <v>0.01794148561787562</v>
       </c>
       <c r="F12">
-        <v>0.1065654758634297</v>
+        <v>-0.06344550380872532</v>
       </c>
       <c r="G12">
-        <v>-0.1198964034796114</v>
+        <v>-0.4966004002082706</v>
       </c>
       <c r="H12">
-        <v>-0.3080061422606813</v>
+        <v>0.4068487529761046</v>
       </c>
       <c r="I12">
-        <v>-0.3352903800946226</v>
+        <v>0.2556989808885785</v>
       </c>
       <c r="J12">
-        <v>-0.5262496270233566</v>
+        <v>-0.3776742919792687</v>
       </c>
       <c r="K12">
-        <v>-0.3090455393245764</v>
+        <v>0.04974588755441189</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.3547147284301006</v>
+        <v>-0.5206087786167466</v>
       </c>
       <c r="C13">
-        <v>-0.1041323164600824</v>
+        <v>-0.0658968376653655</v>
       </c>
       <c r="D13">
-        <v>0.1145169546703413</v>
+        <v>-0.1255233461250439</v>
       </c>
       <c r="E13">
-        <v>-0.1127114229658576</v>
+        <v>-0.5490212170539617</v>
       </c>
       <c r="F13">
-        <v>-0.3011506355244288</v>
+        <v>0.3587125708335065</v>
       </c>
       <c r="G13">
-        <v>-0.3285765090479486</v>
+        <v>0.2094635370877022</v>
       </c>
       <c r="H13">
-        <v>-0.5195966451170424</v>
+        <v>-0.4230666528973063</v>
       </c>
       <c r="I13">
-        <v>-0.3024187346452437</v>
+        <v>0.00472743072672277</v>
       </c>
       <c r="J13">
-        <v>0.007264478295189392</v>
+        <v>-0.1614314160155592</v>
       </c>
       <c r="K13">
-        <v>-0.1470441283050574</v>
+        <v>-0.03863346597035139</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.267220433528421</v>
+        <v>-0.0731916406385919</v>
       </c>
       <c r="C14">
-        <v>-0.0399144291832661</v>
+        <v>-0.5119801449182495</v>
       </c>
       <c r="D14">
-        <v>-0.2627700124527172</v>
+        <v>0.3894152070853667</v>
       </c>
       <c r="E14">
-        <v>-0.3049396494212658</v>
+        <v>0.2373272795439424</v>
       </c>
       <c r="F14">
-        <v>-0.502277634573932</v>
+        <v>-0.3964633753478634</v>
       </c>
       <c r="G14">
-        <v>-0.2878069473837734</v>
+        <v>0.03077047704614316</v>
       </c>
       <c r="H14">
-        <v>0.0207162092269102</v>
+        <v>-0.1356373650754638</v>
       </c>
       <c r="I14">
-        <v>-0.1340894861272014</v>
+        <v>-0.0129500913626151</v>
       </c>
       <c r="J14">
-        <v>0.5172795435329955</v>
+        <v>0.0342697239365532</v>
       </c>
       <c r="K14">
-        <v>0.2998667114057516</v>
+        <v>-0.3623604331913676</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.3429414555215877</v>
+        <v>0.6138155177692772</v>
       </c>
       <c r="C15">
-        <v>-0.3442808007407876</v>
+        <v>0.3556646683838777</v>
       </c>
       <c r="D15">
-        <v>-0.523890903056498</v>
+        <v>-0.3271899058083939</v>
       </c>
       <c r="E15">
-        <v>-0.301793165102442</v>
+        <v>0.0779442456367625</v>
       </c>
       <c r="F15">
-        <v>0.01001350633400211</v>
+        <v>-0.09844645113608363</v>
       </c>
       <c r="G15">
-        <v>-0.1433786527919031</v>
+        <v>0.01973278088954877</v>
       </c>
       <c r="H15">
-        <v>0.5085989059014261</v>
+        <v>0.06491679314199839</v>
       </c>
       <c r="I15">
-        <v>0.2914480492241118</v>
+        <v>-0.3326327163512077</v>
       </c>
       <c r="J15">
-        <v>-0.0911578022926019</v>
+        <v>-0.07899019945178226</v>
       </c>
       <c r="K15">
-        <v>0.3835567731512202</v>
+        <v>0.1409402900039508</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.3854347188491454</v>
+        <v>-0.5090067572872284</v>
       </c>
       <c r="C16">
-        <v>-0.2331927838456747</v>
+        <v>-0.02920648078837601</v>
       </c>
       <c r="D16">
-        <v>0.04839417674053831</v>
+        <v>-0.1728100007886123</v>
       </c>
       <c r="E16">
-        <v>-0.1179832332846139</v>
+        <v>-0.04024676238654801</v>
       </c>
       <c r="F16">
-        <v>0.5284122041822861</v>
+        <v>0.01125052771940938</v>
       </c>
       <c r="G16">
-        <v>0.3088617602098599</v>
+        <v>-0.3835269716740537</v>
       </c>
       <c r="H16">
-        <v>-0.07477560536875621</v>
+        <v>-0.128666855540623</v>
       </c>
       <c r="I16">
-        <v>0.3994955511465666</v>
+        <v>0.09179867325763058</v>
       </c>
       <c r="J16">
-        <v>0.2404745781434928</v>
+        <v>-0.1346453184701736</v>
       </c>
       <c r="K16">
-        <v>0.2965678042329072</v>
+        <v>-0.3227461118008834</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.245067075612503</v>
+        <v>-0.1476295068006095</v>
       </c>
       <c r="C17">
-        <v>-0.02055626684796935</v>
+        <v>-0.02100691433092899</v>
       </c>
       <c r="D17">
-        <v>0.5817510270530177</v>
+        <v>0.02796341064742297</v>
       </c>
       <c r="E17">
-        <v>0.3428169856541604</v>
+        <v>-0.3679258196699467</v>
       </c>
       <c r="F17">
-        <v>-0.04934872364291493</v>
+        <v>-0.1135537875423195</v>
       </c>
       <c r="G17">
-        <v>0.4211705910818374</v>
+        <v>0.1066975423346043</v>
       </c>
       <c r="H17">
-        <v>0.2604991662938107</v>
+        <v>-0.1198404096420244</v>
       </c>
       <c r="I17">
-        <v>0.3158663899378319</v>
+        <v>-0.3079824018742304</v>
       </c>
       <c r="J17">
-        <v>2.543506204591817</v>
+        <v>-0.3352803145949207</v>
       </c>
       <c r="K17">
-        <v>10.03430721618442</v>
+        <v>-0.5262453594313188</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.007923204534817707</v>
+        <v>0.04190910657561187</v>
       </c>
       <c r="C18">
-        <v>0.5977440948420141</v>
+        <v>-0.3581928563695426</v>
       </c>
       <c r="D18">
-        <v>0.3532455612178377</v>
+        <v>-0.1056023087354079</v>
       </c>
       <c r="E18">
-        <v>-0.04134901878731684</v>
+        <v>0.1138825228483581</v>
       </c>
       <c r="F18">
-        <v>0.4281085167529914</v>
+        <v>-0.1129849029057718</v>
       </c>
       <c r="G18">
-        <v>0.2669729938210699</v>
+        <v>-0.3012685308275563</v>
       </c>
       <c r="H18">
-        <v>0.3221373636685061</v>
+        <v>-0.3286273326886064</v>
       </c>
       <c r="I18">
-        <v>2.549688513720654</v>
+        <v>-0.5196185547519862</v>
       </c>
       <c r="J18">
-        <v>10.0404507717668</v>
+        <v>-0.3024281797005504</v>
       </c>
       <c r="K18">
-        <v>-6.290589487968745</v>
+        <v>0.007260406613025627</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.5162781652838546</v>
+        <v>0.04710117012267184</v>
       </c>
       <c r="C19">
-        <v>0.3040754509457267</v>
+        <v>0.1866795166309496</v>
       </c>
       <c r="D19">
-        <v>-0.07635018191704163</v>
+        <v>-0.07460427983406032</v>
       </c>
       <c r="E19">
-        <v>0.3992972785081992</v>
+        <v>-0.2776316712008736</v>
       </c>
       <c r="F19">
-        <v>0.2408666245032622</v>
+        <v>-0.3113083221454961</v>
       </c>
       <c r="G19">
-        <v>0.2972130376186063</v>
+        <v>-0.5050067674905159</v>
       </c>
       <c r="H19">
-        <v>2.525280782526263</v>
+        <v>-0.2889764487688296</v>
       </c>
       <c r="I19">
-        <v>10.01626882589479</v>
+        <v>0.0202150487908816</v>
       </c>
       <c r="J19">
-        <v>-6.314672744602011</v>
+        <v>-0.1343042458412871</v>
       </c>
       <c r="K19">
-        <v>0.725333229721737</v>
+        <v>0.5171875136529924</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.3419009848913889</v>
+        <v>-0.1547757229029307</v>
       </c>
       <c r="C20">
-        <v>-0.07552859446565641</v>
+        <v>-0.3169728225203954</v>
       </c>
       <c r="D20">
-        <v>0.383839373822164</v>
+        <v>-0.332921590628062</v>
       </c>
       <c r="E20">
-        <v>0.2183529830502082</v>
+        <v>-0.5189929852091844</v>
       </c>
       <c r="F20">
-        <v>0.2716369643008432</v>
+        <v>-0.2996791516617377</v>
       </c>
       <c r="G20">
-        <v>2.498375676630148</v>
+        <v>0.0109258821261799</v>
       </c>
       <c r="H20">
-        <v>9.988786934061974</v>
+        <v>-0.1429848834728566</v>
       </c>
       <c r="I20">
-        <v>-6.342404957447901</v>
+        <v>0.5087688514713526</v>
       </c>
       <c r="J20">
-        <v>0.6974923782901079</v>
+        <v>0.2915213954601573</v>
       </c>
       <c r="K20">
-        <v>1.006927789256145</v>
+        <v>-0.09112614703771393</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.3031155399625668</v>
+        <v>-0.1944654064207095</v>
       </c>
       <c r="C21">
-        <v>0.2750384924597667</v>
+        <v>-0.4503926039524171</v>
       </c>
       <c r="D21">
-        <v>0.1623823135173533</v>
+        <v>-0.2612984812552015</v>
       </c>
       <c r="E21">
-        <v>0.2386251595497491</v>
+        <v>0.03632130163346914</v>
       </c>
       <c r="F21">
-        <v>2.475363929006537</v>
+        <v>-0.1231715851919967</v>
       </c>
       <c r="G21">
-        <v>9.970129882184954</v>
+        <v>0.5261825624571008</v>
       </c>
       <c r="H21">
-        <v>-6.359165638853902</v>
+        <v>0.3079035923840029</v>
       </c>
       <c r="I21">
-        <v>0.6815575219153407</v>
+        <v>-0.0751873690423675</v>
       </c>
       <c r="J21">
-        <v>0.9913525608263601</v>
+        <v>0.399318599552389</v>
       </c>
       <c r="K21">
-        <v>-1.027990195123288</v>
+        <v>0.2403985348480971</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.2385410947919303</v>
+        <v>-0.06462558238323679</v>
       </c>
       <c r="C22">
-        <v>0.1373991298463668</v>
+        <v>0.1337482680701136</v>
       </c>
       <c r="D22">
-        <v>0.2162022369921723</v>
+        <v>-0.06983276232126495</v>
       </c>
       <c r="E22">
-        <v>2.453071955895113</v>
+        <v>0.5601377879014012</v>
       </c>
       <c r="F22">
-        <v>9.947509725087953</v>
+        <v>0.3333304741098442</v>
       </c>
       <c r="G22">
-        <v>-6.382079907743304</v>
+        <v>-0.05351232910709675</v>
       </c>
       <c r="H22">
-        <v>0.65845584380685</v>
+        <v>0.4193431877027069</v>
       </c>
       <c r="I22">
-        <v>0.9681459867010032</v>
+        <v>0.2596971205530218</v>
       </c>
       <c r="J22">
-        <v>-1.051251586965475</v>
+        <v>0.3155143727566648</v>
       </c>
       <c r="K22">
-        <v>-1.261219256105614</v>
+        <v>2.5433517045561</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.2428697689542463</v>
+        <v>0.1622277394529007</v>
       </c>
       <c r="C23">
-        <v>0.2684119604981259</v>
+        <v>-0.05383969453226856</v>
       </c>
       <c r="D23">
-        <v>2.484414882378646</v>
+        <v>0.5705663634650786</v>
       </c>
       <c r="E23">
-        <v>9.970684778355183</v>
+        <v>0.3413301789654423</v>
       </c>
       <c r="F23">
-        <v>-6.362101940362282</v>
+        <v>-0.04657440343594271</v>
       </c>
       <c r="G23">
-        <v>0.6771823977665236</v>
+        <v>0.4258170152299661</v>
       </c>
       <c r="H23">
-        <v>0.9863827068968392</v>
+        <v>0.265968094283696</v>
       </c>
       <c r="I23">
-        <v>-1.033206600285368</v>
+        <v>0.3216966818855018</v>
       </c>
       <c r="J23">
-        <v>-1.243249319091637</v>
+        <v>2.549495260138486</v>
       </c>
       <c r="K23">
-        <v>0.8167339857894078</v>
+        <v>10.04036602365957</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.09984790480962494</v>
+        <v>-0.1353056240904281</v>
       </c>
       <c r="C24">
-        <v>2.407386655442209</v>
+        <v>0.5213962531929677</v>
       </c>
       <c r="D24">
-        <v>9.929965017795093</v>
+        <v>0.3063290158357175</v>
       </c>
       <c r="E24">
-        <v>-6.38842019001478</v>
+        <v>-0.07538564168073492</v>
       </c>
       <c r="F24">
-        <v>0.6565765958330511</v>
+        <v>0.3997106459121584</v>
       </c>
       <c r="G24">
-        <v>0.9680428540091091</v>
+        <v>0.2410437682337962</v>
       </c>
       <c r="H24">
-        <v>-1.050647594134532</v>
+        <v>0.2972889506911106</v>
       </c>
       <c r="I24">
-        <v>-1.260333741614538</v>
+        <v>2.525313314266473</v>
       </c>
       <c r="J24">
-        <v>0.7997910170108888</v>
+        <v>10.01628276702631</v>
       </c>
       <c r="K24">
-        <v>-0.2054449384519543</v>
+        <v>-6.31466677027827</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2.377723920290584</v>
+        <v>0.5592217871386298</v>
       </c>
       <c r="C25">
-        <v>9.905733522817009</v>
+        <v>0.3071506032871028</v>
       </c>
       <c r="D25">
-        <v>-6.410592059808436</v>
+        <v>-0.09084354636677011</v>
       </c>
       <c r="E25">
-        <v>0.6351843619446296</v>
+        <v>0.3771970044591044</v>
       </c>
       <c r="F25">
-        <v>0.9469451004035468</v>
+        <v>0.2154676949160331</v>
       </c>
       <c r="G25">
-        <v>-1.071634382260899</v>
+        <v>0.2703838447949956</v>
       </c>
       <c r="H25">
-        <v>-1.281278825722406</v>
+        <v>2.497831422433657</v>
       </c>
       <c r="I25">
-        <v>0.7788615607499801</v>
+        <v>9.988550554180417</v>
       </c>
       <c r="J25">
-        <v>-0.2263685575465104</v>
+        <v>-6.342507621709898</v>
       </c>
       <c r="K25">
-        <v>-0.1410611240368009</v>
+        <v>0.6974477892561519</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>9.851616951379958</v>
+        <v>0.07956365779019234</v>
       </c>
       <c r="C26">
-        <v>-6.427750156658846</v>
+        <v>-0.1996444277291673</v>
       </c>
       <c r="D26">
-        <v>0.6331167580204743</v>
+        <v>0.3212263349262495</v>
       </c>
       <c r="E26">
-        <v>0.9510287352501038</v>
+        <v>0.182455890164939</v>
       </c>
       <c r="F26">
-        <v>-1.065043956288229</v>
+        <v>0.2473720971713848</v>
       </c>
       <c r="G26">
-        <v>-1.273667085429927</v>
+        <v>2.479174370556637</v>
       </c>
       <c r="H26">
-        <v>0.786889299004056</v>
+        <v>9.971789872774416</v>
       </c>
       <c r="I26">
-        <v>-0.2181714176257043</v>
+        <v>-6.358442478084665</v>
       </c>
       <c r="J26">
-        <v>-0.1327950168775777</v>
+        <v>0.6818725608263666</v>
       </c>
       <c r="K26">
-        <v>0.2072416961550223</v>
+        <v>0.9914898048767273</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-7.508433181744085</v>
+        <v>-0.2361418253970038</v>
       </c>
       <c r="C27">
-        <v>0.1630955200221293</v>
+        <v>0.296243151255263</v>
       </c>
       <c r="D27">
-        <v>0.7069959007548053</v>
+        <v>0.1600329676073622</v>
       </c>
       <c r="E27">
-        <v>-1.22930727779398</v>
+        <v>0.2250801240599609</v>
       </c>
       <c r="F27">
-        <v>-1.410083803899549</v>
+        <v>2.456554213459636</v>
       </c>
       <c r="G27">
-        <v>0.6601608170081259</v>
+        <v>9.948875603885014</v>
       </c>
       <c r="H27">
-        <v>-0.3415351775894196</v>
+        <v>-6.381544156193156</v>
       </c>
       <c r="I27">
-        <v>-0.2549920517116719</v>
+        <v>0.6586659867010096</v>
       </c>
       <c r="J27">
-        <v>0.08544852145065598</v>
+        <v>0.9682284130345407</v>
       </c>
       <c r="K27">
-        <v>0.4156028685814029</v>
+        <v>-1.05121925610562</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1.507617640529466</v>
+        <v>0.4017137903631425</v>
       </c>
       <c r="C28">
-        <v>1.664443971041772</v>
+        <v>0.2122426911133158</v>
       </c>
       <c r="D28">
-        <v>-1.509367023909016</v>
+        <v>0.2564230505434936</v>
       </c>
       <c r="E28">
-        <v>-1.291017585052887</v>
+        <v>2.479729266726866</v>
       </c>
       <c r="F28">
-        <v>0.604177753936547</v>
+        <v>9.968853571266035</v>
       </c>
       <c r="G28">
-        <v>-0.3387027031758522</v>
+        <v>-6.362817602233482</v>
       </c>
       <c r="H28">
-        <v>-0.2772131240639395</v>
+        <v>0.6769027068968456</v>
       </c>
       <c r="I28">
-        <v>0.07183282953951639</v>
+        <v>0.986273399714647</v>
       </c>
       <c r="J28">
-        <v>0.3983894092097913</v>
+        <v>-1.033249319091643</v>
       </c>
       <c r="K28">
-        <v>0.3175773596963091</v>
+        <v>-1.243266014210594</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.0006532949893367501</v>
+        <v>0.04367863542481479</v>
       </c>
       <c r="C29">
-        <v>-0.7953302127236536</v>
+        <v>0.1793948236070569</v>
       </c>
       <c r="D29">
-        <v>-1.309977244691565</v>
+        <v>2.439009506166775</v>
       </c>
       <c r="E29">
-        <v>0.6791215756246488</v>
+        <v>9.942535321613537</v>
       </c>
       <c r="F29">
-        <v>-0.2672262947640684</v>
+        <v>-6.383423404166956</v>
       </c>
       <c r="G29">
-        <v>-0.1894452745394216</v>
+        <v>0.6585628540091155</v>
       </c>
       <c r="H29">
-        <v>0.1451221365760503</v>
+        <v>0.9688324058654836</v>
       </c>
       <c r="I29">
-        <v>0.4776108788571712</v>
+        <v>-1.050333741614544</v>
       </c>
       <c r="J29">
-        <v>0.3954840788394188</v>
+        <v>-1.260208982989113</v>
       </c>
       <c r="K29">
-        <v>0.0666410834666824</v>
+        <v>0.7998406094583812</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.7419282379467922</v>
+        <v>0.1497320884554316</v>
       </c>
       <c r="C30">
-        <v>-1.166777999412832</v>
+        <v>2.414778011188692</v>
       </c>
       <c r="D30">
-        <v>0.7304899081118181</v>
+        <v>9.920363451819881</v>
       </c>
       <c r="E30">
-        <v>-0.184459248796779</v>
+        <v>-6.404815638055377</v>
       </c>
       <c r="F30">
-        <v>-0.09838407530057003</v>
+        <v>0.6374651004035533</v>
       </c>
       <c r="G30">
-        <v>0.2250485054956099</v>
+        <v>0.9478456177391158</v>
       </c>
       <c r="H30">
-        <v>0.560151861518971</v>
+        <v>-1.071278825722412</v>
       </c>
       <c r="I30">
-        <v>0.4794064276938911</v>
+        <v>-1.281138439250022</v>
       </c>
       <c r="J30">
-        <v>0.1495229262092557</v>
+        <v>0.7789169903638251</v>
       </c>
       <c r="K30">
-        <v>0.4503520156278059</v>
+        <v>-0.2263466719471444</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1.046587942918361</v>
+        <v>2.360661439751641</v>
       </c>
       <c r="C31">
-        <v>0.4767042899376069</v>
+        <v>9.903205354969471</v>
       </c>
       <c r="D31">
-        <v>-0.08918685741471671</v>
+        <v>-6.406883241979532</v>
       </c>
       <c r="E31">
-        <v>-0.02606936149142058</v>
+        <v>0.6415487352501102</v>
       </c>
       <c r="F31">
-        <v>0.201116916831366</v>
+        <v>0.9544360437117867</v>
       </c>
       <c r="G31">
-        <v>0.581010848589985</v>
+        <v>-1.063667085429933</v>
       </c>
       <c r="H31">
-        <v>0.5107043209265333</v>
+        <v>-1.273110700995946</v>
       </c>
       <c r="I31">
-        <v>0.1638076734193316</v>
+        <v>0.7871141302846312</v>
       </c>
       <c r="J31">
-        <v>0.4683179751635563</v>
+        <v>-0.2180805647879212</v>
       </c>
       <c r="K31">
-        <v>0.247895719916106</v>
+        <v>-0.1327583038449777</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04242894416669407</v>
+        <v>8.822522329884233</v>
       </c>
       <c r="C32">
-        <v>-0.1802303067680682</v>
+        <v>-6.876904479977877</v>
       </c>
       <c r="D32">
-        <v>0.2243938713767105</v>
+        <v>0.3975159007548119</v>
       </c>
       <c r="E32">
-        <v>0.1646630556268408</v>
+        <v>0.7901727222060355</v>
       </c>
       <c r="F32">
-        <v>0.5521825847300728</v>
+        <v>-1.200083803899555</v>
       </c>
       <c r="G32">
-        <v>0.5732748968311869</v>
+        <v>-1.399839182991876</v>
       </c>
       <c r="H32">
-        <v>0.1857845721846398</v>
+        <v>0.663750370320916</v>
       </c>
       <c r="I32">
-        <v>0.4772349269178081</v>
+        <v>-0.3402775996220154</v>
       </c>
       <c r="J32">
-        <v>0.2754562604030572</v>
+        <v>-0.254551478549344</v>
       </c>
       <c r="K32">
-        <v>0.3960727623688868</v>
+        <v>0.0856028685814029</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.234608691992628</v>
+        <v>-8.547617640529472</v>
       </c>
       <c r="C33">
-        <v>0.2391964223165023</v>
+        <v>1.354963971041779</v>
       </c>
       <c r="D33">
-        <v>0.1878811154888818</v>
+        <v>0.5101129760909997</v>
       </c>
       <c r="E33">
-        <v>0.5514964550371163</v>
+        <v>-1.081017585052893</v>
       </c>
       <c r="F33">
-        <v>0.5772778564734574</v>
+        <v>-1.455822246063455</v>
       </c>
       <c r="G33">
-        <v>0.1959179201816476</v>
+        <v>0.6665828447344834</v>
       </c>
       <c r="H33">
-        <v>0.4839422744362542</v>
+        <v>-0.362498671974283</v>
       </c>
       <c r="I33">
-        <v>0.2812594758072003</v>
+        <v>-0.2681671704604836</v>
       </c>
       <c r="J33">
-        <v>0.4032945183069934</v>
+        <v>0.06838940920979131</v>
       </c>
       <c r="K33">
-        <v>0.05769340890863112</v>
+        <v>0.3996994022810173</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.08707909936379449</v>
+        <v>-0.3088267050106568</v>
       </c>
       <c r="C34">
-        <v>0.1849415347999282</v>
+        <v>1.224149787276362</v>
       </c>
       <c r="D34">
-        <v>0.6087619768527019</v>
+        <v>-1.099977244691571</v>
       </c>
       <c r="E34">
-        <v>0.5620357744716956</v>
+        <v>-1.380878424375353</v>
       </c>
       <c r="F34">
-        <v>0.1918372142989769</v>
+        <v>0.7380592531462671</v>
       </c>
       <c r="G34">
-        <v>0.4982052272834395</v>
+        <v>-0.2747308224497651</v>
       </c>
       <c r="H34">
-        <v>0.2843599268096654</v>
+        <v>-0.1948778634239497</v>
       </c>
       <c r="I34">
-        <v>0.4052131637563708</v>
+        <v>0.1476108788571712</v>
       </c>
       <c r="J34">
-        <v>0.06363726260065683</v>
+        <v>0.477606121424127</v>
       </c>
       <c r="K34">
-        <v>0.3710632444933822</v>
+        <v>0.3951668740605545</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.2343920533817323</v>
+        <v>1.277551762053223</v>
       </c>
       <c r="C35">
-        <v>0.5621024059030257</v>
+        <v>-0.9567779994128385</v>
       </c>
       <c r="D35">
-        <v>0.5130046940668407</v>
+        <v>-1.329510091888184</v>
       </c>
       <c r="E35">
-        <v>0.1721386852918237</v>
+        <v>0.8208262991135565</v>
       </c>
       <c r="F35">
-        <v>0.4676136220472416</v>
+        <v>-0.1836696232109135</v>
       </c>
       <c r="G35">
-        <v>0.2494089190592719</v>
+        <v>-0.1149514945043901</v>
       </c>
       <c r="H35">
-        <v>0.3752045486298827</v>
+        <v>0.230151861518971</v>
       </c>
       <c r="I35">
-        <v>0.03296137586344233</v>
+        <v>0.5615284702785992</v>
       </c>
       <c r="J35">
-        <v>0.3391911922946858</v>
-      </c>
-      <c r="K35">
-        <v>0.07791970697663197</v>
+        <v>0.4780487168031278</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.7136637901383804</v>
+        <v>-0.836587942918367</v>
       </c>
       <c r="C36">
-        <v>0.5045620019640772</v>
+        <v>-1.583295710062395</v>
       </c>
       <c r="D36">
-        <v>0.1101462997413605</v>
+        <v>0.9160986904956188</v>
       </c>
       <c r="E36">
-        <v>0.4769505446940093</v>
+        <v>-0.1113549094017641</v>
       </c>
       <c r="F36">
-        <v>0.2460407126934151</v>
+        <v>-0.138883083168634</v>
       </c>
       <c r="G36">
-        <v>0.3550306200321087</v>
+        <v>0.251010848589985</v>
       </c>
       <c r="H36">
-        <v>0.02359464142667161</v>
+        <v>0.5928263635112414</v>
       </c>
       <c r="I36">
-        <v>0.3305817027939197</v>
-      </c>
-      <c r="J36">
-        <v>0.06566542663282859</v>
-      </c>
-      <c r="K36">
-        <v>0.04142112629237629</v>
+        <v>0.4923334640132037</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.6611739089257214</v>
+        <v>-2.102428944166696</v>
       </c>
       <c r="C37">
-        <v>0.2424661772861064</v>
+        <v>0.8250552411422674</v>
       </c>
       <c r="D37">
-        <v>0.343437461374561</v>
+        <v>0.139108323466367</v>
       </c>
       <c r="E37">
-        <v>0.2316648163334098</v>
+        <v>-0.1753369443731592</v>
       </c>
       <c r="F37">
-        <v>0.3750463383999849</v>
+        <v>0.2221825847300728</v>
       </c>
       <c r="G37">
-        <v>-0.00860308521919359</v>
+        <v>0.6553969394158951</v>
       </c>
       <c r="H37">
-        <v>0.30935653100368</v>
-      </c>
-      <c r="I37">
-        <v>0.05641030174405248</v>
-      </c>
-      <c r="J37">
-        <v>0.0236668180707795</v>
-      </c>
-      <c r="K37">
-        <v>0.2163726671508658</v>
+        <v>0.5143103627785119</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.52173245889808</v>
+        <v>0.7706768559177075</v>
       </c>
       <c r="C38">
-        <v>0.3916150992080441</v>
+        <v>0.1539108744061588</v>
       </c>
       <c r="D38">
-        <v>0.0731403976960974</v>
+        <v>-0.1521188845111182</v>
       </c>
       <c r="E38">
-        <v>0.3788507065940108</v>
+        <v>0.2214964550371163</v>
       </c>
       <c r="F38">
-        <v>-0.006574783492313163</v>
+        <v>0.6593998990581655</v>
       </c>
       <c r="G38">
-        <v>0.2595696581617865</v>
-      </c>
-      <c r="H38">
-        <v>0.02912912904287851</v>
-      </c>
-      <c r="I38">
-        <v>0.003640481178412119</v>
-      </c>
-      <c r="J38">
-        <v>0.1859876711661476</v>
-      </c>
-      <c r="K38">
-        <v>0.1414706632283312</v>
+        <v>0.5244437107755198</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.6205335770846683</v>
+        <v>0.001793551453451003</v>
       </c>
       <c r="C39">
-        <v>0.1160860902143776</v>
+        <v>-0.1550584652000718</v>
       </c>
       <c r="D39">
-        <v>0.2585536912275657</v>
+        <v>0.278761976852702</v>
       </c>
       <c r="E39">
-        <v>0.0006701456605825995</v>
+        <v>0.6441578170564037</v>
       </c>
       <c r="F39">
-        <v>0.266080533336324</v>
-      </c>
-      <c r="G39">
-        <v>-0.004943883244233005</v>
-      </c>
-      <c r="H39">
-        <v>-0.01331290082237088</v>
-      </c>
-      <c r="I39">
-        <v>0.1749242355160454</v>
-      </c>
-      <c r="J39">
-        <v>0.122467952301144</v>
+        <v>0.5203630048928489</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.3924296930042493</v>
+        <v>-0.1056079466182677</v>
       </c>
       <c r="C40">
-        <v>0.3222306224556022</v>
+        <v>0.2321024059030258</v>
       </c>
       <c r="D40">
-        <v>-0.1342389990484142</v>
+        <v>0.5951267366515489</v>
       </c>
       <c r="E40">
-        <v>0.2836204627492067</v>
-      </c>
-      <c r="F40">
-        <v>0.01198919249385699</v>
-      </c>
-      <c r="G40">
-        <v>-0.0451746202708688</v>
-      </c>
-      <c r="H40">
-        <v>0.1639033466408366</v>
-      </c>
-      <c r="I40">
-        <v>0.1183294966498535</v>
+        <v>0.5006644758856957</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.4747974866332783</v>
+        <v>0.3836637901383805</v>
       </c>
       <c r="C41">
-        <v>-0.06986322861814367</v>
+        <v>0.5866840445487853</v>
       </c>
       <c r="D41">
-        <v>0.2092250849631835</v>
-      </c>
-      <c r="E41">
-        <v>0.02501891626858249</v>
-      </c>
-      <c r="F41">
-        <v>-0.02439031925178908</v>
-      </c>
-      <c r="G41">
-        <v>0.1531288892123928</v>
-      </c>
-      <c r="H41">
-        <v>0.1184450969585793</v>
+        <v>0.4386720903352326</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.2191407266580338</v>
+        <v>0.7432959515104296</v>
       </c>
       <c r="C42">
-        <v>0.2222972325179511</v>
-      </c>
-      <c r="D42">
-        <v>-0.09185372756793091</v>
-      </c>
-      <c r="E42">
-        <v>0.002576797197731018</v>
-      </c>
-      <c r="F42">
-        <v>0.1613168027488011</v>
-      </c>
-      <c r="G42">
-        <v>0.08815845693172819</v>
+        <v>0.5709919678799785</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.224871884804233</v>
-      </c>
-      <c r="C43">
-        <v>-0.0167560416292489</v>
-      </c>
-      <c r="D43">
-        <v>-0.02441659463916648</v>
-      </c>
-      <c r="E43">
-        <v>0.1540363844492519</v>
-      </c>
-      <c r="F43">
-        <v>0.105470015037597</v>
+        <v>0.8502582494919521</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.1712949347374914</v>
-      </c>
-      <c r="C44">
-        <v>-0.0432890291122604</v>
-      </c>
-      <c r="D44">
-        <v>0.09043742163185606</v>
-      </c>
-      <c r="E44">
-        <v>0.1271249519861354</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.01257980384821508</v>
-      </c>
-      <c r="C45">
-        <v>0.1395187281562265</v>
-      </c>
-      <c r="D45">
-        <v>0.1036987463175434</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.2732997081603292</v>
-      </c>
-      <c r="C46">
-        <v>0.04948772950879379</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.1075450023515467</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-2.153890476091771</v>
+      </c>
+      <c r="C2">
+        <v>-0.5595325243428803</v>
+      </c>
+      <c r="D2">
+        <v>-0.2258134710370447</v>
+      </c>
+      <c r="E2">
+        <v>-1.361347732852476</v>
+      </c>
+      <c r="F2">
+        <v>-0.161377804162835</v>
+      </c>
+      <c r="G2">
+        <v>-0.3613705322248684</v>
+      </c>
+      <c r="H2">
+        <v>0.3205003315142713</v>
+      </c>
+      <c r="I2">
+        <v>-0.361363064463512</v>
+      </c>
+      <c r="J2">
+        <v>-0.1613625315048904</v>
+      </c>
+      <c r="K2">
+        <v>-0.06136242781135051</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>0.05413345762083493</v>
+      </c>
+      <c r="C3">
+        <v>-1.158622189135829</v>
+      </c>
+      <c r="D3">
+        <v>0.01534331173310893</v>
+      </c>
+      <c r="E3">
+        <v>-0.1938912448949983</v>
+      </c>
+      <c r="F3">
+        <v>0.4846560902041107</v>
+      </c>
+      <c r="G3">
+        <v>-0.1984050012659012</v>
+      </c>
+      <c r="H3">
+        <v>0.001163835940418634</v>
+      </c>
+      <c r="I3">
+        <v>0.1010083376947622</v>
+      </c>
+      <c r="J3">
+        <v>0.9922711941142639</v>
+      </c>
+      <c r="K3">
+        <v>0.2376514920073574</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.5513878918070996</v>
+      </c>
+      <c r="C4">
+        <v>0.0729618394830025</v>
+      </c>
+      <c r="D4">
+        <v>0.6402614089946234</v>
+      </c>
+      <c r="E4">
+        <v>-0.08869485044882192</v>
+      </c>
+      <c r="F4">
+        <v>0.09194956639955743</v>
+      </c>
+      <c r="G4">
+        <v>0.183993918447655</v>
+      </c>
+      <c r="H4">
+        <v>1.07204287881553</v>
+      </c>
+      <c r="I4">
+        <v>0.3160993574306164</v>
+      </c>
+      <c r="J4">
+        <v>-0.3211725435059667</v>
+      </c>
+      <c r="K4">
+        <v>0.07860039018024934</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>0.5873545095614722</v>
+      </c>
+      <c r="C5">
+        <v>-0.13646727336581</v>
+      </c>
+      <c r="D5">
+        <v>0.0456325336773738</v>
+      </c>
+      <c r="E5">
+        <v>0.138002099439662</v>
+      </c>
+      <c r="F5">
+        <v>1.026068422022366</v>
+      </c>
+      <c r="G5">
+        <v>0.2700824585882354</v>
+      </c>
+      <c r="H5">
+        <v>-0.3672280208317868</v>
+      </c>
+      <c r="I5">
+        <v>0.03252004746302689</v>
+      </c>
+      <c r="J5">
+        <v>-0.05134562583471514</v>
+      </c>
+      <c r="K5">
+        <v>-0.4855571583337815</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>0.091155761739875</v>
+      </c>
+      <c r="C6">
+        <v>0.1531560236788593</v>
+      </c>
+      <c r="D6">
+        <v>1.027439487248237</v>
+      </c>
+      <c r="E6">
+        <v>0.2653202159197812</v>
+      </c>
+      <c r="F6">
+        <v>-0.3747214766668334</v>
+      </c>
+      <c r="G6">
+        <v>0.02381083953614049</v>
+      </c>
+      <c r="H6">
+        <v>-0.06059583350511849</v>
+      </c>
+      <c r="I6">
+        <v>-0.4950480332685893</v>
+      </c>
+      <c r="J6">
+        <v>0.4078436559504547</v>
+      </c>
+      <c r="K6">
+        <v>0.2564542825969143</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-2.153890476091771</v>
+        <v>0.9600735280457383</v>
       </c>
       <c r="C7">
-        <v>-0.5595325243428803</v>
+        <v>0.2360497925729474</v>
       </c>
       <c r="D7">
-        <v>-0.2258134710370447</v>
+        <v>-0.3876211381769746</v>
       </c>
       <c r="E7">
-        <v>-1.361347732852476</v>
+        <v>0.01794148561787562</v>
       </c>
       <c r="F7">
-        <v>-0.161377804162835</v>
+        <v>-0.06344550380872532</v>
       </c>
       <c r="G7">
-        <v>-0.3613705322248684</v>
+        <v>-0.4966004002082706</v>
       </c>
       <c r="H7">
-        <v>0.3205003315142713</v>
+        <v>0.4068487529761046</v>
       </c>
       <c r="I7">
-        <v>-0.361363064463512</v>
+        <v>0.2556989808885785</v>
       </c>
       <c r="J7">
-        <v>-0.1613625315048904</v>
+        <v>-0.3776742919792687</v>
       </c>
       <c r="K7">
-        <v>-0.06136242781135051</v>
+        <v>0.04974588755441189</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.05413345762083493</v>
+        <v>-0.5206087786167466</v>
       </c>
       <c r="C8">
-        <v>-1.158622189135829</v>
+        <v>-0.0658968376653655</v>
       </c>
       <c r="D8">
-        <v>0.01534331173310893</v>
+        <v>-0.1255233461250439</v>
       </c>
       <c r="E8">
-        <v>-0.1938912448949983</v>
+        <v>-0.5490212170539617</v>
       </c>
       <c r="F8">
-        <v>0.4846560902041107</v>
+        <v>0.3587125708335065</v>
       </c>
       <c r="G8">
-        <v>-0.1984050012659012</v>
+        <v>0.2094635370877022</v>
       </c>
       <c r="H8">
-        <v>0.001163835940418634</v>
+        <v>-0.4230666528973063</v>
       </c>
       <c r="I8">
-        <v>0.1010083376947622</v>
+        <v>0.00472743072672277</v>
       </c>
       <c r="J8">
-        <v>0.9922711941142639</v>
+        <v>-0.1614314160155592</v>
       </c>
       <c r="K8">
-        <v>0.2376514920073574</v>
+        <v>-0.03863346597035139</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5513878918070996</v>
+        <v>-0.0731916406385919</v>
       </c>
       <c r="C9">
-        <v>0.0729618394830025</v>
+        <v>-0.5119801449182495</v>
       </c>
       <c r="D9">
-        <v>0.6402614089946234</v>
+        <v>0.3894152070853667</v>
       </c>
       <c r="E9">
-        <v>-0.08869485044882192</v>
+        <v>0.2373272795439424</v>
       </c>
       <c r="F9">
-        <v>0.09194956639955743</v>
+        <v>-0.3964633753478634</v>
       </c>
       <c r="G9">
-        <v>0.183993918447655</v>
+        <v>0.03077047704614316</v>
       </c>
       <c r="H9">
-        <v>1.07204287881553</v>
+        <v>-0.1356373650754638</v>
       </c>
       <c r="I9">
-        <v>0.3160993574306164</v>
+        <v>-0.0129500913626151</v>
       </c>
       <c r="J9">
-        <v>-0.3211725435059667</v>
+        <v>0.0342697239365532</v>
       </c>
       <c r="K9">
-        <v>0.07860039018024934</v>
+        <v>-0.3623604331913676</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.5873545095614722</v>
+        <v>0.6138155177692772</v>
       </c>
       <c r="C10">
-        <v>-0.13646727336581</v>
+        <v>0.3556646683838777</v>
       </c>
       <c r="D10">
-        <v>0.0456325336773738</v>
+        <v>-0.3271899058083939</v>
       </c>
       <c r="E10">
-        <v>0.138002099439662</v>
+        <v>0.0779442456367625</v>
       </c>
       <c r="F10">
-        <v>1.026068422022366</v>
+        <v>-0.09844645113608363</v>
       </c>
       <c r="G10">
-        <v>0.2700824585882354</v>
+        <v>0.01973278088954877</v>
       </c>
       <c r="H10">
-        <v>-0.3672280208317868</v>
+        <v>0.06491679314199839</v>
       </c>
       <c r="I10">
-        <v>0.03252004746302689</v>
+        <v>-0.3326327163512077</v>
       </c>
       <c r="J10">
-        <v>-0.05134562583471514</v>
+        <v>-0.07899019945178226</v>
       </c>
       <c r="K10">
-        <v>-0.4855571583337815</v>
+        <v>0.1409402900039508</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.091155761739875</v>
+        <v>-0.5090067572872284</v>
       </c>
       <c r="C11">
-        <v>0.1531560236788593</v>
+        <v>-0.02920648078837601</v>
       </c>
       <c r="D11">
-        <v>1.027439487248237</v>
+        <v>-0.1728100007886123</v>
       </c>
       <c r="E11">
-        <v>0.2653202159197812</v>
+        <v>-0.04024676238654801</v>
       </c>
       <c r="F11">
-        <v>-0.3747214766668334</v>
+        <v>0.01125052771940938</v>
       </c>
       <c r="G11">
-        <v>0.02381083953614049</v>
+        <v>-0.3835269716740537</v>
       </c>
       <c r="H11">
-        <v>-0.06059583350511849</v>
+        <v>-0.128666855540623</v>
       </c>
       <c r="I11">
-        <v>-0.4950480332685893</v>
+        <v>0.09179867325763058</v>
       </c>
       <c r="J11">
-        <v>0.4078436559504547</v>
+        <v>-0.1346453184701736</v>
       </c>
       <c r="K11">
-        <v>0.2564542825969143</v>
+        <v>-0.3227461118008834</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.9600735280457383</v>
+        <v>-0.1476295068006095</v>
       </c>
       <c r="C12">
-        <v>0.2360497925729474</v>
+        <v>-0.02100691433092899</v>
       </c>
       <c r="D12">
-        <v>-0.3876211381769746</v>
+        <v>0.02796341064742297</v>
       </c>
       <c r="E12">
-        <v>0.01794148561787562</v>
+        <v>-0.3679258196699467</v>
       </c>
       <c r="F12">
-        <v>-0.06344550380872532</v>
+        <v>-0.1135537875423195</v>
       </c>
       <c r="G12">
-        <v>-0.4966004002082706</v>
+        <v>0.1066975423346043</v>
       </c>
       <c r="H12">
-        <v>0.4068487529761046</v>
+        <v>-0.1198404096420244</v>
       </c>
       <c r="I12">
-        <v>0.2556989808885785</v>
+        <v>-0.3079824018742304</v>
       </c>
       <c r="J12">
-        <v>-0.3776742919792687</v>
+        <v>-0.3352803145949207</v>
       </c>
       <c r="K12">
-        <v>0.04974588755441189</v>
+        <v>-0.5262453594313188</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.5206087786167466</v>
+        <v>0.04190910657561187</v>
       </c>
       <c r="C13">
-        <v>-0.0658968376653655</v>
+        <v>-0.3581928563695426</v>
       </c>
       <c r="D13">
-        <v>-0.1255233461250439</v>
+        <v>-0.1056023087354079</v>
       </c>
       <c r="E13">
-        <v>-0.5490212170539617</v>
+        <v>0.1138825228483581</v>
       </c>
       <c r="F13">
-        <v>0.3587125708335065</v>
+        <v>-0.1129849029057718</v>
       </c>
       <c r="G13">
-        <v>0.2094635370877022</v>
+        <v>-0.3012685308275563</v>
       </c>
       <c r="H13">
-        <v>-0.4230666528973063</v>
+        <v>-0.3286273326886064</v>
       </c>
       <c r="I13">
-        <v>0.00472743072672277</v>
+        <v>-0.5196185547519862</v>
       </c>
       <c r="J13">
-        <v>-0.1614314160155592</v>
+        <v>-0.3024281797005504</v>
       </c>
       <c r="K13">
-        <v>-0.03863346597035139</v>
+        <v>0.007260406613025627</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0731916406385919</v>
+        <v>0.04710117012267184</v>
       </c>
       <c r="C14">
-        <v>-0.5119801449182495</v>
+        <v>0.1866795166309496</v>
       </c>
       <c r="D14">
-        <v>0.3894152070853667</v>
+        <v>-0.07460427983406032</v>
       </c>
       <c r="E14">
-        <v>0.2373272795439424</v>
+        <v>-0.2776316712008736</v>
       </c>
       <c r="F14">
-        <v>-0.3964633753478634</v>
+        <v>-0.3113083221454961</v>
       </c>
       <c r="G14">
-        <v>0.03077047704614316</v>
+        <v>-0.5050067674905159</v>
       </c>
       <c r="H14">
-        <v>-0.1356373650754638</v>
+        <v>-0.2889764487688296</v>
       </c>
       <c r="I14">
-        <v>-0.0129500913626151</v>
+        <v>0.0202150487908816</v>
       </c>
       <c r="J14">
-        <v>0.0342697239365532</v>
+        <v>-0.1343042458412871</v>
       </c>
       <c r="K14">
-        <v>-0.3623604331913676</v>
+        <v>0.5171875136529924</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6138155177692772</v>
+        <v>-0.1547757229029307</v>
       </c>
       <c r="C15">
-        <v>0.3556646683838777</v>
+        <v>-0.3169728225203954</v>
       </c>
       <c r="D15">
-        <v>-0.3271899058083939</v>
+        <v>-0.332921590628062</v>
       </c>
       <c r="E15">
-        <v>0.0779442456367625</v>
+        <v>-0.5189929852091844</v>
       </c>
       <c r="F15">
-        <v>-0.09844645113608363</v>
+        <v>-0.2996791516617377</v>
       </c>
       <c r="G15">
-        <v>0.01973278088954877</v>
+        <v>0.0109258821261799</v>
       </c>
       <c r="H15">
-        <v>0.06491679314199839</v>
+        <v>-0.1429848834728566</v>
       </c>
       <c r="I15">
-        <v>-0.3326327163512077</v>
+        <v>0.5087688514713526</v>
       </c>
       <c r="J15">
-        <v>-0.07899019945178226</v>
+        <v>0.2915213954601573</v>
       </c>
       <c r="K15">
-        <v>0.1409402900039508</v>
+        <v>-0.09112614703771393</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.5090067572872284</v>
+        <v>-0.1944654064207095</v>
       </c>
       <c r="C16">
-        <v>-0.02920648078837601</v>
+        <v>-0.4503926039524171</v>
       </c>
       <c r="D16">
-        <v>-0.1728100007886123</v>
+        <v>-0.2612984812552015</v>
       </c>
       <c r="E16">
-        <v>-0.04024676238654801</v>
+        <v>0.03632130163346914</v>
       </c>
       <c r="F16">
-        <v>0.01125052771940938</v>
+        <v>-0.1231715851919967</v>
       </c>
       <c r="G16">
-        <v>-0.3835269716740537</v>
+        <v>0.5261825624571008</v>
       </c>
       <c r="H16">
-        <v>-0.128666855540623</v>
+        <v>0.3079035923840029</v>
       </c>
       <c r="I16">
-        <v>0.09179867325763058</v>
+        <v>-0.0751873690423675</v>
       </c>
       <c r="J16">
-        <v>-0.1346453184701736</v>
+        <v>0.399318599552389</v>
       </c>
       <c r="K16">
-        <v>-0.3227461118008834</v>
+        <v>0.2403985348480971</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.1476295068006095</v>
+        <v>-0.06462558238323679</v>
       </c>
       <c r="C17">
-        <v>-0.02100691433092899</v>
+        <v>0.1337482680701136</v>
       </c>
       <c r="D17">
-        <v>0.02796341064742297</v>
+        <v>-0.06983276232126495</v>
       </c>
       <c r="E17">
-        <v>-0.3679258196699467</v>
+        <v>0.5601377879014012</v>
       </c>
       <c r="F17">
-        <v>-0.1135537875423195</v>
+        <v>0.3333304741098442</v>
       </c>
       <c r="G17">
-        <v>0.1066975423346043</v>
+        <v>-0.05351232910709675</v>
       </c>
       <c r="H17">
-        <v>-0.1198404096420244</v>
+        <v>0.4193431877027069</v>
       </c>
       <c r="I17">
-        <v>-0.3079824018742304</v>
+        <v>0.2596971205530218</v>
       </c>
       <c r="J17">
-        <v>-0.3352803145949207</v>
+        <v>0.3155143727566648</v>
       </c>
       <c r="K17">
-        <v>-0.5262453594313188</v>
+        <v>2.5433517045561</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04190910657561187</v>
+        <v>0.1622277394529007</v>
       </c>
       <c r="C18">
-        <v>-0.3581928563695426</v>
+        <v>-0.05383969453226856</v>
       </c>
       <c r="D18">
-        <v>-0.1056023087354079</v>
+        <v>0.5705663634650786</v>
       </c>
       <c r="E18">
-        <v>0.1138825228483581</v>
+        <v>0.3413301789654423</v>
       </c>
       <c r="F18">
-        <v>-0.1129849029057718</v>
+        <v>-0.04657440343594271</v>
       </c>
       <c r="G18">
-        <v>-0.3012685308275563</v>
+        <v>0.4258170152299661</v>
       </c>
       <c r="H18">
-        <v>-0.3286273326886064</v>
+        <v>0.265968094283696</v>
       </c>
       <c r="I18">
-        <v>-0.5196185547519862</v>
+        <v>0.3216966818855018</v>
       </c>
       <c r="J18">
-        <v>-0.3024281797005504</v>
+        <v>2.549495260138486</v>
       </c>
       <c r="K18">
-        <v>0.007260406613025627</v>
+        <v>10.04036602365957</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.04710117012267184</v>
+        <v>-0.1353056240904281</v>
       </c>
       <c r="C19">
-        <v>0.1866795166309496</v>
+        <v>0.5213962531929677</v>
       </c>
       <c r="D19">
-        <v>-0.07460427983406032</v>
+        <v>0.3063290158357175</v>
       </c>
       <c r="E19">
-        <v>-0.2776316712008736</v>
+        <v>-0.07538564168073492</v>
       </c>
       <c r="F19">
-        <v>-0.3113083221454961</v>
+        <v>0.3997106459121584</v>
       </c>
       <c r="G19">
-        <v>-0.5050067674905159</v>
+        <v>0.2410437682337962</v>
       </c>
       <c r="H19">
-        <v>-0.2889764487688296</v>
+        <v>0.2972889506911106</v>
       </c>
       <c r="I19">
-        <v>0.0202150487908816</v>
+        <v>2.525313314266473</v>
       </c>
       <c r="J19">
-        <v>-0.1343042458412871</v>
+        <v>10.01628276702631</v>
       </c>
       <c r="K19">
-        <v>0.5171875136529924</v>
+        <v>-8.154972244466283</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.1547757229029307</v>
+        <v>0.5592217871386298</v>
       </c>
       <c r="C20">
-        <v>-0.3169728225203954</v>
+        <v>0.3071506032871028</v>
       </c>
       <c r="D20">
-        <v>-0.332921590628062</v>
+        <v>-0.09084354636677011</v>
       </c>
       <c r="E20">
-        <v>-0.5189929852091844</v>
+        <v>0.3771970044591044</v>
       </c>
       <c r="F20">
-        <v>-0.2996791516617377</v>
+        <v>0.2154676949160331</v>
       </c>
       <c r="G20">
-        <v>0.0109258821261799</v>
+        <v>0.2703838447949956</v>
       </c>
       <c r="H20">
-        <v>-0.1429848834728566</v>
+        <v>2.497831422433657</v>
       </c>
       <c r="I20">
-        <v>0.5087688514713526</v>
+        <v>9.988550554180417</v>
       </c>
       <c r="J20">
-        <v>0.2915213954601573</v>
+        <v>-8.182813095897913</v>
       </c>
       <c r="K20">
-        <v>-0.09112614703771393</v>
+        <v>-0.04318065743421384</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.1944654064207095</v>
+        <v>0.07956365779019234</v>
       </c>
       <c r="C21">
-        <v>-0.4503926039524171</v>
+        <v>-0.1996444277291673</v>
       </c>
       <c r="D21">
-        <v>-0.2612984812552015</v>
+        <v>0.3212263349262495</v>
       </c>
       <c r="E21">
-        <v>0.03632130163346914</v>
+        <v>0.182455890164939</v>
       </c>
       <c r="F21">
-        <v>-0.1231715851919967</v>
+        <v>0.2473720971713848</v>
       </c>
       <c r="G21">
-        <v>0.5261825624571008</v>
+        <v>2.479174370556637</v>
       </c>
       <c r="H21">
-        <v>0.3079035923840029</v>
+        <v>9.971789872774416</v>
       </c>
       <c r="I21">
-        <v>-0.0751873690423675</v>
+        <v>-8.198747952272679</v>
       </c>
       <c r="J21">
-        <v>0.399318599552389</v>
+        <v>-0.0587558858639991</v>
       </c>
       <c r="K21">
-        <v>0.2403985348480971</v>
+        <v>2.088952361556358</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.06462558238323679</v>
+        <v>-0.2361418253970038</v>
       </c>
       <c r="C22">
-        <v>0.1337482680701136</v>
+        <v>0.296243151255263</v>
       </c>
       <c r="D22">
-        <v>-0.06983276232126495</v>
+        <v>0.1600329676073622</v>
       </c>
       <c r="E22">
-        <v>0.5601377879014012</v>
+        <v>0.2250801240599609</v>
       </c>
       <c r="F22">
-        <v>0.3333304741098442</v>
+        <v>2.456554213459636</v>
       </c>
       <c r="G22">
-        <v>-0.05351232910709675</v>
+        <v>9.948875603885014</v>
       </c>
       <c r="H22">
-        <v>0.4193431877027069</v>
+        <v>-8.22184963038117</v>
       </c>
       <c r="I22">
-        <v>0.2596971205530218</v>
+        <v>-0.08196245998935614</v>
       </c>
       <c r="J22">
-        <v>0.3155143727566648</v>
+        <v>2.065690969714172</v>
       </c>
       <c r="K22">
-        <v>2.5433517045561</v>
+        <v>-1.374311105625206</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1622277394529007</v>
+        <v>0.4017137903631425</v>
       </c>
       <c r="C23">
-        <v>-0.05383969453226856</v>
+        <v>0.2122426911133158</v>
       </c>
       <c r="D23">
-        <v>0.5705663634650786</v>
+        <v>0.2564230505434936</v>
       </c>
       <c r="E23">
-        <v>0.3413301789654423</v>
+        <v>2.479729266726866</v>
       </c>
       <c r="F23">
-        <v>-0.04657440343594271</v>
+        <v>9.968853571266035</v>
       </c>
       <c r="G23">
-        <v>0.4258170152299661</v>
+        <v>-8.203123076421496</v>
       </c>
       <c r="H23">
-        <v>0.265968094283696</v>
+        <v>-0.06372573979352014</v>
       </c>
       <c r="I23">
-        <v>0.3216966818855018</v>
+        <v>2.083735956394278</v>
       </c>
       <c r="J23">
-        <v>2.549495260138486</v>
+        <v>-1.356341168611229</v>
       </c>
       <c r="K23">
-        <v>10.04036602365957</v>
+        <v>-1.417541426244587</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.1353056240904281</v>
+        <v>0.04367863542481479</v>
       </c>
       <c r="C24">
-        <v>0.5213962531929677</v>
+        <v>0.1793948236070569</v>
       </c>
       <c r="D24">
-        <v>0.3063290158357175</v>
+        <v>2.439009506166775</v>
       </c>
       <c r="E24">
-        <v>-0.07538564168073492</v>
+        <v>9.942535321613537</v>
       </c>
       <c r="F24">
-        <v>0.3997106459121584</v>
+        <v>-8.223728878354969</v>
       </c>
       <c r="G24">
-        <v>0.2410437682337962</v>
+        <v>-0.08206559268125024</v>
       </c>
       <c r="H24">
-        <v>0.2972889506911106</v>
+        <v>2.066294962545114</v>
       </c>
       <c r="I24">
-        <v>2.525313314266473</v>
+        <v>-1.37342559113413</v>
       </c>
       <c r="J24">
-        <v>10.01628276702631</v>
+        <v>-1.434484395023106</v>
       </c>
       <c r="K24">
-        <v>-6.31466677027827</v>
+        <v>0.6070294466676911</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.5592217871386298</v>
+        <v>0.1497320884554316</v>
       </c>
       <c r="C25">
-        <v>0.3071506032871028</v>
+        <v>2.414778011188692</v>
       </c>
       <c r="D25">
-        <v>-0.09084354636677011</v>
+        <v>9.920363451819881</v>
       </c>
       <c r="E25">
-        <v>0.3771970044591044</v>
+        <v>-8.245121112243391</v>
       </c>
       <c r="F25">
-        <v>0.2154676949160331</v>
+        <v>-0.1031633462868124</v>
       </c>
       <c r="G25">
-        <v>0.2703838447949956</v>
+        <v>2.045308174418746</v>
       </c>
       <c r="H25">
-        <v>2.497831422433657</v>
+        <v>-1.394370675241998</v>
       </c>
       <c r="I25">
-        <v>9.988550554180417</v>
+        <v>-1.455413851284015</v>
       </c>
       <c r="J25">
-        <v>-6.342507621709898</v>
+        <v>0.586105827573135</v>
       </c>
       <c r="K25">
-        <v>0.6974477892561519</v>
+        <v>0.00353677996176241</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.07956365779019234</v>
+        <v>2.360661439751641</v>
       </c>
       <c r="C26">
-        <v>-0.1996444277291673</v>
+        <v>9.903205354969471</v>
       </c>
       <c r="D26">
-        <v>0.3212263349262495</v>
+        <v>-8.247188716167546</v>
       </c>
       <c r="E26">
-        <v>0.182455890164939</v>
+        <v>-0.09907971144025543</v>
       </c>
       <c r="F26">
-        <v>0.2473720971713848</v>
+        <v>2.051898600391417</v>
       </c>
       <c r="G26">
-        <v>2.479174370556637</v>
+        <v>-1.38675893494952</v>
       </c>
       <c r="H26">
-        <v>9.971789872774416</v>
+        <v>-1.447386113029939</v>
       </c>
       <c r="I26">
-        <v>-6.358442478084665</v>
+        <v>0.5943029674939411</v>
       </c>
       <c r="J26">
-        <v>0.6818725608263666</v>
+        <v>0.01180288712098562</v>
       </c>
       <c r="K26">
-        <v>0.9914898048767273</v>
+        <v>0.1075168490101177</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.2361418253970038</v>
+        <v>8.822522329884233</v>
       </c>
       <c r="C27">
-        <v>0.296243151255263</v>
+        <v>-8.717209954165892</v>
       </c>
       <c r="D27">
-        <v>0.1600329676073622</v>
+        <v>-0.3431125459355538</v>
       </c>
       <c r="E27">
-        <v>0.2250801240599609</v>
+        <v>1.887635278885666</v>
       </c>
       <c r="F27">
-        <v>2.456554213459636</v>
+        <v>-1.523175653419141</v>
       </c>
       <c r="G27">
-        <v>9.948875603885014</v>
+        <v>-1.574114595025869</v>
       </c>
       <c r="H27">
-        <v>-6.381544156193156</v>
+        <v>0.4709392075302258</v>
       </c>
       <c r="I27">
-        <v>0.6586659867010096</v>
+        <v>-0.1103941477131086</v>
       </c>
       <c r="J27">
-        <v>0.9682284130345407</v>
+        <v>-0.01427632569424861</v>
       </c>
       <c r="K27">
-        <v>-1.05121925610562</v>
+        <v>-0.2745439866244867</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.4017137903631425</v>
+        <v>-18.05043101117951</v>
       </c>
       <c r="C28">
-        <v>0.2122426911133158</v>
+        <v>-8.32539966991267</v>
       </c>
       <c r="D28">
-        <v>0.2564230505434936</v>
+        <v>-4.595535604641848</v>
       </c>
       <c r="E28">
-        <v>2.479729266726866</v>
+        <v>-6.735642716981509</v>
       </c>
       <c r="F28">
-        <v>9.968853571266035</v>
+        <v>-5.782239534242841</v>
       </c>
       <c r="G28">
-        <v>-6.362817602233482</v>
+        <v>-2.961281583298267</v>
       </c>
       <c r="H28">
-        <v>0.6769027068968456</v>
+        <v>-2.948023855469143</v>
       </c>
       <c r="I28">
-        <v>0.986273399714647</v>
+        <v>-2.397628160868237</v>
       </c>
       <c r="J28">
-        <v>-1.033249319091643</v>
+        <v>-2.311221790721024</v>
       </c>
       <c r="K28">
-        <v>-1.243266014210594</v>
+        <v>-1.211273466481804</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.04367863542481479</v>
+        <v>-4.646543859950972</v>
       </c>
       <c r="C29">
-        <v>0.1793948236070569</v>
+        <v>4.684163723847721</v>
       </c>
       <c r="D29">
-        <v>2.439009506166775</v>
+        <v>-3.124420739283605</v>
       </c>
       <c r="E29">
-        <v>9.942535321613537</v>
+        <v>-0.6071840854832409</v>
       </c>
       <c r="F29">
-        <v>-6.383423404166956</v>
+        <v>-0.1046017656000074</v>
       </c>
       <c r="G29">
-        <v>0.6585628540091155</v>
+        <v>0.227444381109299</v>
       </c>
       <c r="H29">
-        <v>0.9688324058654836</v>
+        <v>-0.2213395989107229</v>
       </c>
       <c r="I29">
-        <v>-1.050333741614544</v>
+        <v>-0.1578450276976632</v>
       </c>
       <c r="J29">
-        <v>-1.260208982989113</v>
+        <v>0.4848633745437521</v>
       </c>
       <c r="K29">
-        <v>0.7998406094583812</v>
+        <v>0.4995287703943857</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1497320884554316</v>
+        <v>0.474248737160696</v>
       </c>
       <c r="C30">
-        <v>2.414778011188692</v>
+        <v>-1.076307783806762</v>
       </c>
       <c r="D30">
-        <v>9.920363451819881</v>
+        <v>-1.324019377732539</v>
       </c>
       <c r="E30">
-        <v>-6.404815638055377</v>
+        <v>0.4278619502807322</v>
       </c>
       <c r="F30">
-        <v>0.6374651004035533</v>
+        <v>-0.0470148279198066</v>
       </c>
       <c r="G30">
-        <v>0.9478456177391158</v>
+        <v>0.07271588424509681</v>
       </c>
       <c r="H30">
-        <v>-1.071278825722412</v>
+        <v>-0.2131258186297608</v>
       </c>
       <c r="I30">
-        <v>-1.281138439250022</v>
+        <v>0.6245661875775963</v>
       </c>
       <c r="J30">
-        <v>0.7789169903638251</v>
+        <v>0.5285100127947314</v>
       </c>
       <c r="K30">
-        <v>-0.2263466719471444</v>
+        <v>0.1732338582727313</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>2.360661439751641</v>
+        <v>-0.7605833703675913</v>
       </c>
       <c r="C31">
-        <v>9.903205354969471</v>
+        <v>-1.14495216914605</v>
       </c>
       <c r="D31">
-        <v>-6.406883241979532</v>
+        <v>0.3665629498303417</v>
       </c>
       <c r="E31">
-        <v>0.6415487352501102</v>
+        <v>0.0345029517193825</v>
       </c>
       <c r="F31">
-        <v>0.9544360437117867</v>
+        <v>0.1737863305786626</v>
       </c>
       <c r="G31">
-        <v>-1.063667085429933</v>
+        <v>-0.1604008787148919</v>
       </c>
       <c r="H31">
-        <v>-1.273110700995946</v>
+        <v>0.6889025560396993</v>
       </c>
       <c r="I31">
-        <v>0.7871141302846312</v>
+        <v>0.6018462588124233</v>
       </c>
       <c r="J31">
-        <v>-0.2180805647879212</v>
+        <v>0.2404490173963864</v>
       </c>
       <c r="K31">
-        <v>-0.1327583038449777</v>
+        <v>0.3880374264315322</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8.822522329884233</v>
+        <v>-1.27819919816334</v>
       </c>
       <c r="C32">
-        <v>-6.876904479977877</v>
+        <v>0.2038100881890948</v>
       </c>
       <c r="D32">
-        <v>0.3975159007548119</v>
+        <v>0.1896659654017589</v>
       </c>
       <c r="E32">
-        <v>0.7901727222060355</v>
+        <v>0.221131852551811</v>
       </c>
       <c r="F32">
-        <v>-1.200083803899555</v>
+        <v>-0.1764562694603757</v>
       </c>
       <c r="G32">
-        <v>-1.399839182991876</v>
+        <v>0.7314368146800039</v>
       </c>
       <c r="H32">
-        <v>0.663750370320916</v>
+        <v>0.6420618455652175</v>
       </c>
       <c r="I32">
-        <v>-0.3402775996220154</v>
+        <v>0.2633010093562608</v>
       </c>
       <c r="J32">
-        <v>-0.254551478549344</v>
+        <v>0.4182690798284438</v>
       </c>
       <c r="K32">
-        <v>0.0856028685814029</v>
+        <v>0.5801496602617977</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-8.547617640529472</v>
+        <v>-0.3980014082449753</v>
       </c>
       <c r="C33">
-        <v>1.354963971041779</v>
+        <v>0.08195241873796499</v>
       </c>
       <c r="D33">
-        <v>0.5101129760909997</v>
+        <v>0.51915251794177</v>
       </c>
       <c r="E33">
-        <v>-1.081017585052893</v>
+        <v>-0.2067542916898704</v>
       </c>
       <c r="F33">
-        <v>-1.455822246063455</v>
+        <v>0.7056128287825272</v>
       </c>
       <c r="G33">
-        <v>0.6665828447344834</v>
+        <v>0.7203106764305827</v>
       </c>
       <c r="H33">
-        <v>-0.362498671974283</v>
+        <v>0.2973194199096661</v>
       </c>
       <c r="I33">
-        <v>-0.2681671704604836</v>
+        <v>0.4369985067701382</v>
       </c>
       <c r="J33">
-        <v>0.06838940920979131</v>
+        <v>0.6193209063344789</v>
       </c>
       <c r="K33">
-        <v>0.3996994022810173</v>
+        <v>0.1115163554295299</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.3088267050106568</v>
+        <v>-0.0446366928751947</v>
       </c>
       <c r="C34">
-        <v>1.224149787276362</v>
+        <v>0.4412464235312579</v>
       </c>
       <c r="D34">
-        <v>-1.099977244691571</v>
+        <v>-0.1299597654553419</v>
       </c>
       <c r="E34">
-        <v>-1.380878424375353</v>
+        <v>0.7100509676919233</v>
       </c>
       <c r="F34">
-        <v>0.7380592531462671</v>
+        <v>0.7005038118559952</v>
       </c>
       <c r="G34">
-        <v>-0.2747308224497651</v>
+        <v>0.3102542654663598</v>
       </c>
       <c r="H34">
-        <v>-0.1948778634239497</v>
+        <v>0.4456887681480856</v>
       </c>
       <c r="I34">
-        <v>0.1476108788571712</v>
+        <v>0.6188644597695221</v>
       </c>
       <c r="J34">
-        <v>0.477606121424127</v>
+        <v>0.1158983144693728</v>
       </c>
       <c r="K34">
-        <v>0.3951668740605545</v>
+        <v>0.3924771251538499</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.277551762053223</v>
+        <v>0.4131235478932697</v>
       </c>
       <c r="C35">
-        <v>-0.9567779994128385</v>
+        <v>-0.1448626539616514</v>
       </c>
       <c r="D35">
-        <v>-1.329510091888184</v>
+        <v>0.7116441798431115</v>
       </c>
       <c r="E35">
-        <v>0.8208262991135565</v>
+        <v>0.6922872776377726</v>
       </c>
       <c r="F35">
-        <v>-0.1836696232109135</v>
+        <v>0.3007389074750232</v>
       </c>
       <c r="G35">
-        <v>-0.1149514945043901</v>
+        <v>0.4395164831063359</v>
       </c>
       <c r="H35">
-        <v>0.230151861518971</v>
+        <v>0.6118710763963398</v>
       </c>
       <c r="I35">
-        <v>0.5615284702785992</v>
+        <v>0.108217737813674</v>
       </c>
       <c r="J35">
-        <v>0.4780487168031278</v>
+        <v>0.3852851207349248</v>
+      </c>
+      <c r="K35">
+        <v>0.2154944932785699</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.836587942918367</v>
+        <v>-0.1887711713764582</v>
       </c>
       <c r="C36">
-        <v>-1.583295710062395</v>
+        <v>0.8162091766989346</v>
       </c>
       <c r="D36">
-        <v>0.9160986904956188</v>
+        <v>0.6275128393499869</v>
       </c>
       <c r="E36">
-        <v>-0.1113549094017641</v>
+        <v>0.2578182990101577</v>
       </c>
       <c r="F36">
-        <v>-0.138883083168634</v>
+        <v>0.438936378300381</v>
       </c>
       <c r="G36">
-        <v>0.251010848589985</v>
+        <v>0.5880906134996482</v>
       </c>
       <c r="H36">
-        <v>0.5928263635112414</v>
+        <v>0.0808169973771625</v>
       </c>
       <c r="I36">
-        <v>0.4923334640132037</v>
+        <v>0.3662826675783959</v>
+      </c>
+      <c r="J36">
+        <v>0.1942821285963777</v>
+      </c>
+      <c r="K36">
+        <v>0.4985071211304231</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-2.102428944166696</v>
+        <v>0.7286230346106679</v>
       </c>
       <c r="C37">
-        <v>0.8250552411422674</v>
+        <v>0.581182960962502</v>
       </c>
       <c r="D37">
-        <v>0.139108323466367</v>
+        <v>0.2795952369455511</v>
       </c>
       <c r="E37">
-        <v>-0.1753369443731592</v>
+        <v>0.4208503375311328</v>
       </c>
       <c r="F37">
-        <v>0.2221825847300728</v>
+        <v>0.5650984972239618</v>
       </c>
       <c r="G37">
-        <v>0.6553969394158951</v>
+        <v>0.07199117729145363</v>
       </c>
       <c r="H37">
-        <v>0.5143103627785119</v>
+        <v>0.3532899840372986</v>
+      </c>
+      <c r="I37">
+        <v>0.1786203446300509</v>
+      </c>
+      <c r="J37">
+        <v>0.48518960292869</v>
+      </c>
+      <c r="K37">
+        <v>-0.126509025051585</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.7706768559177075</v>
+        <v>0.8249772702444764</v>
       </c>
       <c r="C38">
-        <v>0.1539108744061588</v>
+        <v>0.374697401717386</v>
       </c>
       <c r="D38">
-        <v>-0.1521188845111182</v>
+        <v>0.2680167544318708</v>
       </c>
       <c r="E38">
-        <v>0.2214964550371163</v>
+        <v>0.5627994501851176</v>
       </c>
       <c r="F38">
-        <v>0.6593998990581655</v>
+        <v>0.08604678704867932</v>
       </c>
       <c r="G38">
-        <v>0.5244437107755198</v>
+        <v>0.3125756694652211</v>
+      </c>
+      <c r="H38">
+        <v>0.1554897992163455</v>
+      </c>
+      <c r="I38">
+        <v>0.4721924258730112</v>
+      </c>
+      <c r="J38">
+        <v>-0.1493276040035453</v>
+      </c>
+      <c r="K38">
+        <v>0.53941379857722</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.001793551453451003</v>
+        <v>0.7018652807891024</v>
       </c>
       <c r="C39">
-        <v>-0.1550584652000718</v>
+        <v>0.3421681169220201</v>
       </c>
       <c r="D39">
-        <v>0.278761976852702</v>
+        <v>0.3744268905598048</v>
       </c>
       <c r="E39">
-        <v>0.6441578170564037</v>
+        <v>0.08910456515142709</v>
       </c>
       <c r="F39">
-        <v>0.5203630048928489</v>
+        <v>0.3191884879577838</v>
+      </c>
+      <c r="G39">
+        <v>0.09930755255861461</v>
+      </c>
+      <c r="H39">
+        <v>0.4412815902186596</v>
+      </c>
+      <c r="I39">
+        <v>-0.170758424274909</v>
+      </c>
+      <c r="J39">
+        <v>0.5059034180493052</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.1056079466182677</v>
+        <v>0.5411794372474544</v>
       </c>
       <c r="C40">
-        <v>0.2321024059030258</v>
+        <v>0.496743714539936</v>
       </c>
       <c r="D40">
-        <v>0.5951267366515489</v>
+        <v>-0.04417013207255568</v>
       </c>
       <c r="E40">
-        <v>0.5006644758856957</v>
+        <v>0.3177753604882694</v>
+      </c>
+      <c r="F40">
+        <v>0.1241613314942274</v>
+      </c>
+      <c r="G40">
+        <v>0.4129768215817709</v>
+      </c>
+      <c r="H40">
+        <v>-0.1851265203726994</v>
+      </c>
+      <c r="I40">
+        <v>0.5026638546186286</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.3836637901383805</v>
+        <v>0.672006347104666</v>
       </c>
       <c r="C41">
-        <v>0.5866840445487853</v>
+        <v>0.03987854920078723</v>
       </c>
       <c r="D41">
-        <v>0.4386720903352326</v>
+        <v>0.209256514755606</v>
+      </c>
+      <c r="E41">
+        <v>0.1270561588905799</v>
+      </c>
+      <c r="F41">
+        <v>0.4306513513399225</v>
+      </c>
+      <c r="G41">
+        <v>-0.2097270142325958</v>
+      </c>
+      <c r="H41">
+        <v>0.4912808864370054</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.7432959515104296</v>
+        <v>0.2764081207913187</v>
       </c>
       <c r="C42">
-        <v>0.5709919678799785</v>
+        <v>0.3170201102459826</v>
+      </c>
+      <c r="D42">
+        <v>-0.004466275321651003</v>
+      </c>
+      <c r="E42">
+        <v>0.4421903317420205</v>
+      </c>
+      <c r="F42">
+        <v>-0.181424196081987</v>
+      </c>
+      <c r="G42">
+        <v>0.4662066834986699</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.8502582494919521</v>
+        <v>0.4953407796113314</v>
+      </c>
+      <c r="C43">
+        <v>0.002322386300562501</v>
+      </c>
+      <c r="D43">
+        <v>0.3749087228784593</v>
+      </c>
+      <c r="E43">
+        <v>-0.1620715392585467</v>
+      </c>
+      <c r="F43">
+        <v>0.4728009537603685</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.1988357588998881</v>
+      </c>
+      <c r="C44">
+        <v>0.4424557151967178</v>
+      </c>
+      <c r="D44">
+        <v>-0.2623096334481756</v>
+      </c>
+      <c r="E44">
+        <v>0.4851678320045973</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.5880240561530312</v>
+      </c>
+      <c r="C45">
+        <v>-0.2684919928334556</v>
+      </c>
+      <c r="D45">
+        <v>0.4329208979447894</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.01843065384781256</v>
+      </c>
+      <c r="C46">
+        <v>0.5163801843952837</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.5274983647385301</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>0.3205003315142713</v>
       </c>
-      <c r="I2">
-        <v>-0.361363064463512</v>
-      </c>
-      <c r="J2">
-        <v>-0.1613625315048904</v>
-      </c>
-      <c r="K2">
-        <v>-0.06136242781135051</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>0.4846560902041107</v>
       </c>
-      <c r="G3">
-        <v>-0.1984050012659012</v>
-      </c>
-      <c r="H3">
-        <v>0.001163835940418634</v>
-      </c>
-      <c r="I3">
-        <v>0.1010083376947622</v>
-      </c>
-      <c r="J3">
-        <v>0.9922711941142639</v>
-      </c>
-      <c r="K3">
-        <v>0.2376514920073574</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>1.07204287881553</v>
       </c>
-      <c r="I4">
-        <v>0.3160993574306164</v>
-      </c>
-      <c r="J4">
-        <v>-0.3211725435059667</v>
-      </c>
-      <c r="K4">
-        <v>0.07860039018024934</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>1.026068422022366</v>
       </c>
-      <c r="G5">
-        <v>0.2700824585882354</v>
-      </c>
-      <c r="H5">
-        <v>-0.3672280208317868</v>
-      </c>
-      <c r="I5">
-        <v>0.03252004746302689</v>
-      </c>
-      <c r="J5">
-        <v>-0.05134562583471514</v>
-      </c>
-      <c r="K5">
-        <v>-0.4855571583337815</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>-0.06059583350511849</v>
       </c>
-      <c r="I6">
-        <v>-0.4950480332685893</v>
-      </c>
-      <c r="J6">
-        <v>0.4078436559504547</v>
-      </c>
-      <c r="K6">
-        <v>0.2564542825969143</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>-0.06344550380872532</v>
       </c>
-      <c r="G7">
-        <v>-0.4966004002082706</v>
-      </c>
-      <c r="H7">
-        <v>0.4068487529761046</v>
-      </c>
-      <c r="I7">
-        <v>0.2556989808885785</v>
-      </c>
-      <c r="J7">
-        <v>-0.3776742919792687</v>
-      </c>
-      <c r="K7">
-        <v>0.04974588755441189</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>-0.4230666528973063</v>
       </c>
-      <c r="I8">
-        <v>0.00472743072672277</v>
-      </c>
-      <c r="J8">
-        <v>-0.1614314160155592</v>
-      </c>
-      <c r="K8">
-        <v>-0.03863346597035139</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>-0.3964633753478634</v>
       </c>
-      <c r="G9">
-        <v>0.03077047704614316</v>
-      </c>
-      <c r="H9">
-        <v>-0.1356373650754638</v>
-      </c>
-      <c r="I9">
-        <v>-0.0129500913626151</v>
-      </c>
-      <c r="J9">
-        <v>0.0342697239365532</v>
-      </c>
-      <c r="K9">
-        <v>-0.3623604331913676</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>0.06491679314199839</v>
       </c>
-      <c r="I10">
-        <v>-0.3326327163512077</v>
-      </c>
-      <c r="J10">
-        <v>-0.07899019945178226</v>
-      </c>
-      <c r="K10">
-        <v>0.1409402900039508</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>0.01125052771940938</v>
       </c>
-      <c r="G11">
-        <v>-0.3835269716740537</v>
-      </c>
-      <c r="H11">
-        <v>-0.128666855540623</v>
-      </c>
-      <c r="I11">
-        <v>0.09179867325763058</v>
-      </c>
-      <c r="J11">
-        <v>-0.1346453184701736</v>
-      </c>
-      <c r="K11">
-        <v>-0.3227461118008834</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>-0.1198404096420244</v>
       </c>
-      <c r="I12">
-        <v>-0.3079824018742304</v>
-      </c>
-      <c r="J12">
-        <v>-0.3352803145949207</v>
-      </c>
-      <c r="K12">
-        <v>-0.5262453594313188</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>-0.3024281797005504</v>
       </c>
-      <c r="K13">
-        <v>0.007260406613025627</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>-0.2889764487688296</v>
       </c>
-      <c r="I14">
-        <v>0.0202150487908816</v>
-      </c>
-      <c r="J14">
-        <v>-0.1343042458412871</v>
-      </c>
-      <c r="K14">
-        <v>0.5171875136529924</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>0.2915213954601573</v>
       </c>
-      <c r="K15">
-        <v>-0.09112614703771393</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>0.3079035923840029</v>
       </c>
-      <c r="I16">
-        <v>-0.0751873690423675</v>
-      </c>
-      <c r="J16">
-        <v>0.399318599552389</v>
-      </c>
-      <c r="K16">
-        <v>0.2403985348480971</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>0.3155143727566648</v>
       </c>
-      <c r="K17">
-        <v>2.5433517045561</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>0.3216966818855018</v>
       </c>
-      <c r="J18">
-        <v>2.549495260138486</v>
-      </c>
-      <c r="K18">
-        <v>10.04036602365957</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>0.2972889506911106</v>
       </c>
-      <c r="I19">
-        <v>2.525313314266473</v>
-      </c>
-      <c r="J19">
-        <v>10.01628276702631</v>
-      </c>
-      <c r="K19">
-        <v>-8.154972244466283</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>-0.0587558858639991</v>
       </c>
-      <c r="K21">
-        <v>2.088952361556358</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>-0.08196245998935614</v>
       </c>
-      <c r="J22">
-        <v>2.065690969714172</v>
-      </c>
-      <c r="K22">
-        <v>-1.374311105625206</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>-0.06372573979352014</v>
       </c>
-      <c r="I23">
-        <v>2.083735956394278</v>
-      </c>
-      <c r="J23">
-        <v>-1.356341168611229</v>
-      </c>
-      <c r="K23">
-        <v>-1.417541426244587</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>0.586105827573135</v>
       </c>
-      <c r="K25">
-        <v>0.00353677996176241</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>0.5943029674939411</v>
       </c>
-      <c r="J26">
-        <v>0.01180288712098562</v>
-      </c>
-      <c r="K26">
-        <v>0.1075168490101177</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>0.4709392075302258</v>
       </c>
-      <c r="I27">
-        <v>-0.1103941477131086</v>
-      </c>
-      <c r="J27">
-        <v>-0.01427632569424861</v>
-      </c>
-      <c r="K27">
-        <v>-0.2745439866244867</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>0.4848633745437521</v>
       </c>
-      <c r="K29">
-        <v>0.4995287703943857</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>0.6245661875775963</v>
       </c>
-      <c r="J30">
-        <v>0.5285100127947314</v>
-      </c>
-      <c r="K30">
-        <v>0.1732338582727313</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>0.6889025560396993</v>
       </c>
-      <c r="I31">
-        <v>0.6018462588124233</v>
-      </c>
-      <c r="J31">
-        <v>0.2404490173963864</v>
-      </c>
-      <c r="K31">
-        <v>0.3880374264315322</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>0.6193209063344789</v>
       </c>
-      <c r="K33">
-        <v>0.1115163554295299</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>0.6188644597695221</v>
       </c>
-      <c r="J34">
-        <v>0.1158983144693728</v>
-      </c>
-      <c r="K34">
-        <v>0.3924771251538499</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>0.6118710763963398</v>
       </c>
-      <c r="I35">
-        <v>0.108217737813674</v>
-      </c>
-      <c r="J35">
-        <v>0.3852851207349248</v>
-      </c>
-      <c r="K35">
-        <v>0.2154944932785699</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>0.48518960292869</v>
       </c>
-      <c r="K37">
-        <v>-0.126509025051585</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>0.4721924258730112</v>
       </c>
-      <c r="J38">
-        <v>-0.1493276040035453</v>
-      </c>
-      <c r="K38">
-        <v>0.53941379857722</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>0.4412815902186596</v>
-      </c>
-      <c r="I39">
-        <v>-0.170758424274909</v>
-      </c>
-      <c r="J39">
-        <v>0.5059034180493052</v>
       </c>
     </row>
     <row r="40" spans="1:11">
